--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9178F99-AA45-4DAC-867F-E94D8E70A9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68B2D9-9202-4C4C-9F06-EFC632090017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="336" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10068" yWindow="4488" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10 trees" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="28">
   <si>
     <t>query size</t>
   </si>
@@ -82,6 +93,36 @@
   </si>
   <si>
     <t>lightgbm</t>
+  </si>
+  <si>
+    <t>papertime</t>
+  </si>
+  <si>
+    <t>pt(s)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>HB-Pytorch</t>
+  </si>
+  <si>
+    <t>HB-TS</t>
+  </si>
+  <si>
+    <t>HB-TVM</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Xgboost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
   </si>
 </sst>
 </file>
@@ -399,15 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J45"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +482,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -470,8 +520,16 @@
       <c r="J2">
         <v>166376.04093551601</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>SUM(E2,G2,H2)</f>
+        <v>24004.59074974055</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(K2,0.001)</f>
+        <v>24.004590749740551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -502,8 +560,16 @@
       <c r="J3">
         <v>5140.46144485473</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
+        <v>19411.770582199086</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
+        <v>19.411770582199086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -534,8 +600,16 @@
       <c r="J4">
         <v>4964.0319347381501</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>19204.632997512745</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>19.204632997512746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>236750</v>
       </c>
@@ -566,8 +640,16 @@
       <c r="J5">
         <v>4722.3947048187201</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>19066.560745239207</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>19.066560745239208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -598,8 +680,16 @@
       <c r="J6">
         <v>16027.1782875061</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>30822.041749954034</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>30.822041749954035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -630,8 +720,16 @@
       <c r="J7">
         <v>4766.1452293395996</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>20125.18310546867</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>20.125183105468672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -662,8 +760,16 @@
       <c r="J8">
         <v>5247.2517490386899</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>20707.960367202675</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>20.707960367202677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>236750</v>
       </c>
@@ -694,8 +800,16 @@
       <c r="J9">
         <v>6324.4376182556098</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>19928.592681884758</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>19.928592681884759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -726,8 +840,16 @@
       <c r="J10">
         <v>120265.623569488</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>101963.18888664237</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>101.96318888664237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -758,8 +880,16 @@
       <c r="J11">
         <v>2120.9266185760498</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>20357.100725173907</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>20.357100725173908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -790,8 +920,16 @@
       <c r="J12">
         <v>2347.06687927246</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>20498.423576354948</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>20.498423576354948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>236750</v>
       </c>
@@ -822,8 +960,16 @@
       <c r="J13">
         <v>2243.8280582427901</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>20498.451948165792</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>20.498451948165791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -854,8 +1000,16 @@
       <c r="J14">
         <v>40793.544530868501</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>20273.836612701372</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>20.273836612701373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -886,8 +1040,16 @@
       <c r="J15">
         <v>29473.6893177032</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>19985.979795455849</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>19.985979795455851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -918,8 +1080,16 @@
       <c r="J16">
         <v>30103.067398071202</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>19872.265338897661</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>19.872265338897662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>236750</v>
       </c>
@@ -950,8 +1120,16 @@
       <c r="J17">
         <v>21938.883543014501</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>19703.780174255277</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>19.703780174255275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -982,8 +1160,16 @@
       <c r="J18">
         <v>175530.685663223</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>23650.983095169053</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>23.650983095169053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -1014,8 +1200,16 @@
       <c r="J19">
         <v>3601.6464233398401</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>19710.749149322437</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>19.710749149322439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -1046,8 +1240,16 @@
       <c r="J20">
         <v>3829.2422294616699</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>19998.359203338608</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>19.998359203338609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>236750</v>
       </c>
@@ -1078,8 +1280,16 @@
       <c r="J21">
         <v>3572.2057819366401</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>19681.432485580419</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>19.681432485580419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1110,8 +1320,16 @@
       <c r="J22">
         <v>31058.112382888699</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>49817.555189132523</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>49.817555189132527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -1142,8 +1360,16 @@
       <c r="J23">
         <v>6027.6405811309796</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>24812.996149063103</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>24.812996149063103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -1174,8 +1400,16 @@
       <c r="J24">
         <v>5520.7667350768997</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>24326.084613799976</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>24.326084613799978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>236750</v>
       </c>
@@ -1206,8 +1440,16 @@
       <c r="J25">
         <v>5592.3290252685501</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>24411.338567733685</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>24.411338567733686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -1238,8 +1480,16 @@
       <c r="J26">
         <v>7350.9545326232901</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>22189.031362533515</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>22.189031362533516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -1270,8 +1520,16 @@
       <c r="J27">
         <v>4714.0464782714798</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>19699.943304061795</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>19.699943304061794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -1302,8 +1560,16 @@
       <c r="J28">
         <v>4562.2570514678901</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>19340.310573577797</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>19.340310573577799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>236750</v>
       </c>
@@ -1334,8 +1600,16 @@
       <c r="J29">
         <v>4345.8285331726001</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>19151.411056518529</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>19.15141105651853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -1366,8 +1640,16 @@
       <c r="J30">
         <v>6741.5730953216498</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>22401.882886886531</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>22.401882886886533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -1398,8 +1680,16 @@
       <c r="J31">
         <v>4925.5280494689896</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>20385.319471359195</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>20.385319471359196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -1430,8 +1720,16 @@
       <c r="J32">
         <v>5362.1273040771403</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>20894.928693771319</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>20.89492869377132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>236750</v>
       </c>
@@ -1462,8 +1760,16 @@
       <c r="J33">
         <v>6443.9718723297101</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>20020.54238319393</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>20.020542383193931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>100</v>
       </c>
@@ -1494,8 +1800,16 @@
       <c r="J34">
         <v>2440.7773017883301</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>19931.945323944092</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>19.931945323944092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -1526,8 +1840,16 @@
       <c r="J35">
         <v>2256.7882537841701</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>19577.001571655237</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>19.577001571655238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -1558,8 +1880,16 @@
       <c r="J36">
         <v>2475.8961200714102</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>19753.750085830645</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>19.753750085830646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>236750</v>
       </c>
@@ -1590,8 +1920,16 @@
       <c r="J37">
         <v>2358.3912849426201</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>19914.387226104653</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>19.914387226104655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>100</v>
       </c>
@@ -1622,8 +1960,16 @@
       <c r="J38">
         <v>13226.6285419464</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>20659.90209579458</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>20.659902095794578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1000</v>
       </c>
@@ -1654,8 +2000,16 @@
       <c r="J39">
         <v>29395.3688144683</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>19882.529735565171</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>19.882529735565171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10000</v>
       </c>
@@ -1686,8 +2040,16 @@
       <c r="J40">
         <v>29895.760774612401</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>19999.873161315834</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>19.999873161315836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>236750</v>
       </c>
@@ -1718,8 +2080,16 @@
       <c r="J41">
         <v>21703.922271728501</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>19803.698539733803</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>19.803698539733805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>100</v>
       </c>
@@ -1750,8 +2120,16 @@
       <c r="J42">
         <v>4416.6936874389603</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>20873.921155929529</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>20.87392115592953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1000</v>
       </c>
@@ -1782,8 +2160,16 @@
       <c r="J43">
         <v>3744.6982860565099</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>19953.703641891476</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>19.953703641891476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10000</v>
       </c>
@@ -1814,8 +2200,16 @@
       <c r="J44">
         <v>4090.7564163207999</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>20427.555322647018</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>20.42755532264702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>236750</v>
       </c>
@@ -1846,23 +2240,58 @@
       <c r="J45">
         <v>4768.73779296875</v>
       </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>21118.252992629947</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>21.118252992629948</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J44"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1893,8 +2322,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1925,8 +2360,16 @@
       <c r="J2">
         <v>14597.7523326873</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>SUM(E2,G2,H2)</f>
+        <v>21477.996826171824</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(K2,0.001)</f>
+        <v>21.477996826171825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -1957,8 +2400,16 @@
       <c r="J3">
         <v>7434.4809055328296</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
+        <v>19087.468862533486</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L44" si="1">PRODUCT(K3,0.001)</f>
+        <v>19.087468862533488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -1989,8 +2440,16 @@
       <c r="J4">
         <v>7435.5089664459201</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>19087.456464767445</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>19.087456464767445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>236750</v>
       </c>
@@ -2021,8 +2480,16 @@
       <c r="J5">
         <v>7255.0499439239502</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>18761.665344238259</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>18.76166534423826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -2053,8 +2520,16 @@
       <c r="J6">
         <v>8619.9896335601807</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>21331.359386443994</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>21.331359386443992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -2085,8 +2560,16 @@
       <c r="J7">
         <v>7026.2763500213596</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>19861.939430236813</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>19.861939430236813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -2117,8 +2600,16 @@
       <c r="J8">
         <v>7473.3018875121998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>19932.61337280272</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>19.93261337280272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>236750</v>
       </c>
@@ -2149,8 +2640,16 @@
       <c r="J9">
         <v>9931.9379329681396</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>18840.18039703367</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>18.84018039703367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2181,8 +2680,16 @@
       <c r="J10">
         <v>6438.1296634674</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>22675.798892974828</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>22.675798892974829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -2213,8 +2720,16 @@
       <c r="J11">
         <v>4426.4149665832501</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>21995.888948440457</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>21.995888948440459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -2245,8 +2760,16 @@
       <c r="J12">
         <v>4350.8491516113199</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>21767.140150070158</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>21.767140150070158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>236750</v>
       </c>
@@ -2277,8 +2800,16 @@
       <c r="J13">
         <v>7668.8351631164496</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>24980.643272399881</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>24.980643272399881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2309,8 +2840,16 @@
       <c r="J14">
         <v>36039.5414829254</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>19868.786811828573</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>19.868786811828574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -2341,8 +2880,16 @@
       <c r="J15">
         <v>31147.082805633501</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>19372.3049163818</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>19.3723049163818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -2373,8 +2920,16 @@
       <c r="J16">
         <v>34954.164743423396</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>19507.116556167541</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>19.507116556167542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>236750</v>
       </c>
@@ -2405,8 +2960,16 @@
       <c r="J17">
         <v>90106.800556182803</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>19315.36626815789</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>19.315366268157891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -2437,8 +3000,16 @@
       <c r="J18">
         <v>8969.5329666137695</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>20468.434333801226</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>20.468434333801227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -2469,8 +3040,16 @@
       <c r="J19">
         <v>3612.2133731842</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>19038.146734237667</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>19.038146734237667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -2501,8 +3080,16 @@
       <c r="J20">
         <v>3783.7140560150101</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>19691.022396087614</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>19.691022396087615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>236750</v>
       </c>
@@ -2533,8 +3120,16 @@
       <c r="J21">
         <v>3596.6780185699399</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>19401.668310165318</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>19.40166831016532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -2565,8 +3160,16 @@
       <c r="J22">
         <v>56618.654012680003</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>74995.902299880923</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>74.995902299880925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -2597,8 +3200,16 @@
       <c r="J23">
         <v>11025.6979465484</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>31968.754291534267</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>31.968754291534268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -2629,8 +3240,16 @@
       <c r="J24">
         <v>7356.0202121734601</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>25553.627252578681</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>25.553627252578682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>236750</v>
       </c>
@@ -2661,8 +3280,16 @@
       <c r="J25">
         <v>7581.0024738311704</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>25957.767724990823</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>25.957767724990823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -2693,8 +3320,16 @@
       <c r="J26">
         <v>8944.4015026092493</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>21682.696580886768</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>21.68269658088677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -2725,8 +3360,16 @@
       <c r="J27">
         <v>6694.1211223602204</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>19258.500576019196</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>19.258500576019198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -2757,8 +3400,16 @@
       <c r="J28">
         <v>6690.1412010192798</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>19427.932977676355</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>19.427932977676356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>236750</v>
       </c>
@@ -2789,8 +3440,16 @@
       <c r="J29">
         <v>6503.0035972595197</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>19129.885673522887</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>19.129885673522889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2821,8 +3480,16 @@
       <c r="J30">
         <v>8389.0230655670093</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>21551.76806449884</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>21.551768064498841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -2853,8 +3520,16 @@
       <c r="J31">
         <v>6831.2401771545401</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>20236.24372482298</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>20.23624372482298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -2885,8 +3560,16 @@
       <c r="J32">
         <v>7323.3180046081497</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>20394.616365432681</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>20.394616365432682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>100</v>
       </c>
@@ -2917,8 +3600,16 @@
       <c r="J33">
         <v>4819.07081604003</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>21653.520822524926</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>21.653520822524925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -2949,8 +3640,16 @@
       <c r="J34">
         <v>4735.4485988616898</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>21555.830717086748</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>21.555830717086749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -2981,8 +3680,16 @@
       <c r="J35">
         <v>4619.3809509277298</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>21326.825618743816</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>21.326825618743818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>236750</v>
       </c>
@@ -3013,8 +3720,16 @@
       <c r="J36">
         <v>7745.0318336486798</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>24614.975929260221</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>24.614975929260222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100</v>
       </c>
@@ -3045,8 +3760,16 @@
       <c r="J37">
         <v>33617.044210433902</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>20155.572652816765</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>20.155572652816765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1000</v>
       </c>
@@ -3077,8 +3800,16 @@
       <c r="J38">
         <v>30543.847084045399</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>19362.543106079083</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>19.362543106079084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10000</v>
       </c>
@@ -3109,8 +3840,16 @@
       <c r="J39">
         <v>33948.551416397</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>19275.591135024937</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>19.275591135024939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>236750</v>
       </c>
@@ -3141,8 +3880,16 @@
       <c r="J40">
         <v>89793.275833129796</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>19426.39231681819</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>19.426392316818191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100</v>
       </c>
@@ -3173,8 +3920,16 @@
       <c r="J41">
         <v>4582.9534530639603</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>20331.374406814495</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>20.331374406814497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -3205,8 +3960,16 @@
       <c r="J42">
         <v>3802.03247070312</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>19721.846580505327</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>19.721846580505328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -3237,8 +4000,16 @@
       <c r="J43">
         <v>4193.4649944305402</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>20190.834283828724</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>20.190834283828725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>236750</v>
       </c>
@@ -3269,32 +4040,1927 @@
       <c r="J44">
         <v>4804.7795295715296</v>
       </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>20846.753120422356</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>20.846753120422356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L44">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>17323.186635971</v>
+      </c>
+      <c r="F2">
+        <v>252.40492820739701</v>
+      </c>
+      <c r="G2">
+        <v>3227.85425186157</v>
+      </c>
+      <c r="H2">
+        <v>119.632244110107</v>
+      </c>
+      <c r="I2">
+        <v>16704.701662063599</v>
+      </c>
+      <c r="J2">
+        <v>20052.2785186767</v>
+      </c>
+      <c r="K2">
+        <f>SUM(E2,G2,H2)</f>
+        <v>20670.673131942676</v>
+      </c>
+      <c r="L2">
+        <f>PRODUCT(K2,0.001)</f>
+        <v>20.670673131942678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>17293.079137802099</v>
+      </c>
+      <c r="F3">
+        <v>257.505655288696</v>
+      </c>
+      <c r="G3">
+        <v>1796.6933250427201</v>
+      </c>
+      <c r="H3">
+        <v>117.93994903564401</v>
+      </c>
+      <c r="I3">
+        <v>11732.1956157684</v>
+      </c>
+      <c r="J3">
+        <v>13646.9283103942</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K41" si="0">SUM(E3,G3,H3)</f>
+        <v>19207.712411880464</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L41" si="1">PRODUCT(K3,0.001)</f>
+        <v>19.207712411880465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>17270.447254180901</v>
+      </c>
+      <c r="F4">
+        <v>257.713556289672</v>
+      </c>
+      <c r="G4">
+        <v>1823.4169483184801</v>
+      </c>
+      <c r="H4">
+        <v>132.182359695434</v>
+      </c>
+      <c r="I4">
+        <v>11811.4895820617</v>
+      </c>
+      <c r="J4">
+        <v>13767.179727554299</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>19226.046562194817</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>19.226046562194817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>17256.461143493601</v>
+      </c>
+      <c r="F5">
+        <v>264.77956771850501</v>
+      </c>
+      <c r="G5">
+        <v>3139.4283771514802</v>
+      </c>
+      <c r="H5">
+        <v>121.418476104736</v>
+      </c>
+      <c r="I5">
+        <v>10661.799430847101</v>
+      </c>
+      <c r="J5">
+        <v>13922.702550888</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>20517.30799674982</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>20.517307996749821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>17321.3276863098</v>
+      </c>
+      <c r="F6">
+        <v>254.45055961608799</v>
+      </c>
+      <c r="G6">
+        <v>2095.4642295837398</v>
+      </c>
+      <c r="H6">
+        <v>117.581844329833</v>
+      </c>
+      <c r="I6">
+        <v>10505.588054656901</v>
+      </c>
+      <c r="J6">
+        <v>12718.6911106109</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>19534.373760223374</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>19.534373760223374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>17270.067214965798</v>
+      </c>
+      <c r="F7">
+        <v>255.76376914977999</v>
+      </c>
+      <c r="G7">
+        <v>2444.0131187438901</v>
+      </c>
+      <c r="H7">
+        <v>117.030143737792</v>
+      </c>
+      <c r="I7">
+        <v>10847.8960990905</v>
+      </c>
+      <c r="J7">
+        <v>13408.997535705499</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>19831.110477447481</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>19.831110477447481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>17291.570663452101</v>
+      </c>
+      <c r="F8">
+        <v>265.47598838806101</v>
+      </c>
+      <c r="G8">
+        <v>8402.8027057647705</v>
+      </c>
+      <c r="H8">
+        <v>118.19553375244099</v>
+      </c>
+      <c r="I8">
+        <v>2374.7279644012401</v>
+      </c>
+      <c r="J8">
+        <v>10895.792722702001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>25812.568902969313</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>25.812568902969314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>17209.715127944899</v>
+      </c>
+      <c r="F9">
+        <v>256.863355636596</v>
+      </c>
+      <c r="G9">
+        <v>8352.2620201110803</v>
+      </c>
+      <c r="H9">
+        <v>129.60934638977</v>
+      </c>
+      <c r="I9">
+        <v>1130.93161582946</v>
+      </c>
+      <c r="J9">
+        <v>9612.8578186035102</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>25691.58649444575</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>25.691586494445751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>17215.6360149383</v>
+      </c>
+      <c r="F10">
+        <v>260.917901992797</v>
+      </c>
+      <c r="G10">
+        <v>8174.9970912933304</v>
+      </c>
+      <c r="H10">
+        <v>114.689111709594</v>
+      </c>
+      <c r="I10">
+        <v>1135.4913711547799</v>
+      </c>
+      <c r="J10">
+        <v>9425.2338409423792</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>25505.322217941226</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>25.505322217941227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>236750</v>
+      </c>
+      <c r="B11">
+        <v>236750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>17383.325576782201</v>
+      </c>
+      <c r="F11">
+        <v>261.54232025146399</v>
+      </c>
+      <c r="G11">
+        <v>14243.110656738199</v>
+      </c>
+      <c r="H11">
+        <v>114.596843719482</v>
+      </c>
+      <c r="I11">
+        <v>1130.00464439392</v>
+      </c>
+      <c r="J11">
+        <v>15487.7688884735</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>31741.033077239881</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>31.74103307723988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>17228.843450546199</v>
+      </c>
+      <c r="F12">
+        <v>260.01262664794899</v>
+      </c>
+      <c r="G12">
+        <v>1886.4359855651801</v>
+      </c>
+      <c r="H12">
+        <v>118.515253067016</v>
+      </c>
+      <c r="I12">
+        <v>31802.988767623901</v>
+      </c>
+      <c r="J12">
+        <v>33808.0027103424</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>19233.794689178394</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>19.233794689178396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>17187.697172164899</v>
+      </c>
+      <c r="F13">
+        <v>259.26852226257301</v>
+      </c>
+      <c r="G13">
+        <v>1065.7627582550001</v>
+      </c>
+      <c r="H13">
+        <v>119.11654472351</v>
+      </c>
+      <c r="I13">
+        <v>41030.304193496697</v>
+      </c>
+      <c r="J13">
+        <v>42215.2523994445</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>18372.576475143411</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>18.372576475143411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>17353.251934051499</v>
+      </c>
+      <c r="F14">
+        <v>257.64513015747002</v>
+      </c>
+      <c r="G14">
+        <v>1149.9035358428901</v>
+      </c>
+      <c r="H14">
+        <v>118.961334228515</v>
+      </c>
+      <c r="I14">
+        <v>55577.6274204254</v>
+      </c>
+      <c r="J14">
+        <v>56846.565008163401</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>18622.116804122903</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>18.622116804122903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>236750</v>
+      </c>
+      <c r="B15">
+        <v>236750</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>17316.904067993099</v>
+      </c>
+      <c r="F15">
+        <v>260.44654846191401</v>
+      </c>
+      <c r="G15">
+        <v>1175.3816604614201</v>
+      </c>
+      <c r="H15">
+        <v>116.91594123840299</v>
+      </c>
+      <c r="I15">
+        <v>239562.51931190401</v>
+      </c>
+      <c r="J15">
+        <v>240854.89821434001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>18609.20166969292</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>18.609201669692922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>17377.863883972099</v>
+      </c>
+      <c r="F16">
+        <v>267.196416854858</v>
+      </c>
+      <c r="G16">
+        <v>2164.1194820403998</v>
+      </c>
+      <c r="H16">
+        <v>53.766965866088803</v>
+      </c>
+      <c r="I16">
+        <v>6933.6671829223596</v>
+      </c>
+      <c r="J16">
+        <v>9151.6289710998499</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>19595.750331878589</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>19.595750331878591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>17220.968008041302</v>
+      </c>
+      <c r="F17">
+        <v>261.680841445922</v>
+      </c>
+      <c r="G17">
+        <v>1063.5795593261701</v>
+      </c>
+      <c r="H17">
+        <v>53.550004959106403</v>
+      </c>
+      <c r="I17">
+        <v>2656.9745540618801</v>
+      </c>
+      <c r="J17">
+        <v>3774.1680145263599</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>18338.09757232658</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>18.338097572326582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>17296.297788619901</v>
+      </c>
+      <c r="F18">
+        <v>260.077238082885</v>
+      </c>
+      <c r="G18">
+        <v>1241.3353919982901</v>
+      </c>
+      <c r="H18">
+        <v>53.488254547119098</v>
+      </c>
+      <c r="I18">
+        <v>2625.35667419433</v>
+      </c>
+      <c r="J18">
+        <v>3920.25685310363</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>18591.121435165311</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>18.591121435165309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>236750</v>
+      </c>
+      <c r="B19">
+        <v>236750</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>17394.497394561698</v>
+      </c>
+      <c r="F19">
+        <v>259.98258590698202</v>
+      </c>
+      <c r="G19">
+        <v>933.32934379577603</v>
+      </c>
+      <c r="H19">
+        <v>53.5070896148681</v>
+      </c>
+      <c r="I19">
+        <v>2630.40113449096</v>
+      </c>
+      <c r="J19">
+        <v>3617.3107624053901</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>18381.333827972343</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>18.381333827972345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>17288.002014160102</v>
+      </c>
+      <c r="F20">
+        <v>258.93330574035599</v>
+      </c>
+      <c r="G20">
+        <v>165063.156604766</v>
+      </c>
+      <c r="H20">
+        <v>118.1640625</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>165183.17341804499</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>182469.3226814261</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>182.46932268142609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>17131.476640701199</v>
+      </c>
+      <c r="F21">
+        <v>257.11250305175702</v>
+      </c>
+      <c r="G21">
+        <v>19674.597024917599</v>
+      </c>
+      <c r="H21">
+        <v>113.437414169311</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>19789.9074554443</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>36919.511079788106</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>36.919511079788109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10000</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>17149.045228958101</v>
+      </c>
+      <c r="F22">
+        <v>260.05005836486799</v>
+      </c>
+      <c r="G22">
+        <v>7559.5235824584897</v>
+      </c>
+      <c r="H22">
+        <v>121.980190277099</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7683.3946704864502</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>24830.549001693689</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>24.83054900169369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>236750</v>
+      </c>
+      <c r="B23">
+        <v>236750</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>17131.488800048799</v>
+      </c>
+      <c r="F23">
+        <v>257.07435607910099</v>
+      </c>
+      <c r="G23">
+        <v>9019.1824436187708</v>
+      </c>
+      <c r="H23">
+        <v>115.135431289672</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>9136.2526416778492</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>26265.806674957243</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>26.265806674957243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>17463.215589523301</v>
+      </c>
+      <c r="F24">
+        <v>712.55683898925702</v>
+      </c>
+      <c r="G24">
+        <v>3232.1503162384001</v>
+      </c>
+      <c r="H24">
+        <v>118.95751953125</v>
+      </c>
+      <c r="I24">
+        <v>9517.8604125976508</v>
+      </c>
+      <c r="J24">
+        <v>12869.0619468688</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>20814.323425292951</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>20.814323425292951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>18411.387681961001</v>
+      </c>
+      <c r="F25">
+        <v>649.30796623229901</v>
+      </c>
+      <c r="G25">
+        <v>1795.1977252960201</v>
+      </c>
+      <c r="H25">
+        <v>130.584239959716</v>
+      </c>
+      <c r="I25">
+        <v>9587.6889228820801</v>
+      </c>
+      <c r="J25">
+        <v>11513.5238170623</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>20337.169647216739</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>20.33716964721674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>17576.075077056801</v>
+      </c>
+      <c r="F26">
+        <v>651.13544464111305</v>
+      </c>
+      <c r="G26">
+        <v>1839.4808769225999</v>
+      </c>
+      <c r="H26">
+        <v>127.965211868286</v>
+      </c>
+      <c r="I26">
+        <v>9596.1050987243598</v>
+      </c>
+      <c r="J26">
+        <v>11563.6420249938</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>19543.521165847687</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>19.54352116584769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>19257.731676101601</v>
+      </c>
+      <c r="F27">
+        <v>696.40040397643997</v>
+      </c>
+      <c r="G27">
+        <v>2961.0936641693102</v>
+      </c>
+      <c r="H27">
+        <v>122.990608215332</v>
+      </c>
+      <c r="I27">
+        <v>9182.2867393493598</v>
+      </c>
+      <c r="J27">
+        <v>12266.4422988891</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>22341.815948486244</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>22.341815948486246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1000</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>19163.799285888599</v>
+      </c>
+      <c r="F28">
+        <v>696.33102416992097</v>
+      </c>
+      <c r="G28">
+        <v>2149.8351097106902</v>
+      </c>
+      <c r="H28">
+        <v>119.55165863037099</v>
+      </c>
+      <c r="I28">
+        <v>9135.3955268859809</v>
+      </c>
+      <c r="J28">
+        <v>11404.853105545</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>21433.18605422966</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>21.433186054229662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>19170.925140380801</v>
+      </c>
+      <c r="F29">
+        <v>695.06120681762695</v>
+      </c>
+      <c r="G29">
+        <v>2488.3682727813698</v>
+      </c>
+      <c r="H29">
+        <v>120.079755783081</v>
+      </c>
+      <c r="I29">
+        <v>9444.4026947021393</v>
+      </c>
+      <c r="J29">
+        <v>12052.9205799102</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>21779.373168945251</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>21.779373168945252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>19320.214748382499</v>
+      </c>
+      <c r="F30">
+        <v>702.37660408019997</v>
+      </c>
+      <c r="G30">
+        <v>5806.5049648284903</v>
+      </c>
+      <c r="H30">
+        <v>117.716789245605</v>
+      </c>
+      <c r="I30">
+        <v>2134.6383094787502</v>
+      </c>
+      <c r="J30">
+        <v>8058.9146614074698</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>25244.436502456596</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>25.244436502456598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1000</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>19150.065660476601</v>
+      </c>
+      <c r="F31">
+        <v>699.65267181396405</v>
+      </c>
+      <c r="G31">
+        <v>5050.8272647857602</v>
+      </c>
+      <c r="H31">
+        <v>116.395711898803</v>
+      </c>
+      <c r="I31">
+        <v>2099.0657806396398</v>
+      </c>
+      <c r="J31">
+        <v>7266.3478851318296</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>24317.288637161164</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>24.317288637161166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>19152.746438980099</v>
+      </c>
+      <c r="F32">
+        <v>704.93698120117097</v>
+      </c>
+      <c r="G32">
+        <v>9469.9709415435791</v>
+      </c>
+      <c r="H32">
+        <v>116.98293685913001</v>
+      </c>
+      <c r="I32">
+        <v>2097.2273349761899</v>
+      </c>
+      <c r="J32">
+        <v>11684.2370033264</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>28739.700317382809</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>28.739700317382809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>236750</v>
+      </c>
+      <c r="B33">
+        <v>236750</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>19198.776721954298</v>
+      </c>
+      <c r="F33">
+        <v>697.86310195922795</v>
+      </c>
+      <c r="G33">
+        <v>12587.159872054999</v>
+      </c>
+      <c r="H33">
+        <v>120.42331695556599</v>
+      </c>
+      <c r="I33">
+        <v>2091.9759273528998</v>
+      </c>
+      <c r="J33">
+        <v>14799.620151519701</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>31906.359910964864</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>31.906359910964866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>19289.943218231201</v>
+      </c>
+      <c r="F34">
+        <v>695.32203674316395</v>
+      </c>
+      <c r="G34">
+        <v>1908.3926677703801</v>
+      </c>
+      <c r="H34">
+        <v>119.101762771606</v>
+      </c>
+      <c r="I34">
+        <v>27366.858720779401</v>
+      </c>
+      <c r="J34">
+        <v>29394.447088241501</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>21317.437648773186</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>21.317437648773186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1000</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>19105.5512428283</v>
+      </c>
+      <c r="F35">
+        <v>695.02329826354901</v>
+      </c>
+      <c r="G35">
+        <v>1063.0600452423</v>
+      </c>
+      <c r="H35">
+        <v>118.233203887939</v>
+      </c>
+      <c r="I35">
+        <v>37907.004117965698</v>
+      </c>
+      <c r="J35">
+        <v>39088.3827209472</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>20286.844491958538</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>20.28684449195854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10000</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>19268.575191497799</v>
+      </c>
+      <c r="F36">
+        <v>693.51840019225995</v>
+      </c>
+      <c r="G36">
+        <v>1200.5195617675699</v>
+      </c>
+      <c r="H36">
+        <v>119.72165107727</v>
+      </c>
+      <c r="I36">
+        <v>52966.340303420999</v>
+      </c>
+      <c r="J36">
+        <v>54286.667823791497</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>20588.81640434264</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>20.588816404342641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>236750</v>
+      </c>
+      <c r="B37">
+        <v>236750</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>19468.5170650482</v>
+      </c>
+      <c r="F37">
+        <v>700.369834899902</v>
+      </c>
+      <c r="G37">
+        <v>1161.7977619171099</v>
+      </c>
+      <c r="H37">
+        <v>128.87454032897901</v>
+      </c>
+      <c r="I37">
+        <v>240208.851575851</v>
+      </c>
+      <c r="J37">
+        <v>241499.608039855</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>20759.18936729429</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>20.75918936729429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>19198.0357170104</v>
+      </c>
+      <c r="F38">
+        <v>692.72089004516602</v>
+      </c>
+      <c r="G38">
+        <v>2204.2834758758499</v>
+      </c>
+      <c r="H38">
+        <v>55.134534835815401</v>
+      </c>
+      <c r="I38">
+        <v>2762.5889778137198</v>
+      </c>
+      <c r="J38">
+        <v>5022.0930576324399</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>21457.453727722066</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>21.457453727722065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39">
+        <v>1000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>19289.307594299298</v>
+      </c>
+      <c r="F39">
+        <v>694.529771804809</v>
+      </c>
+      <c r="G39">
+        <v>1370.55492401123</v>
+      </c>
+      <c r="H39">
+        <v>55.477142333984297</v>
+      </c>
+      <c r="I39">
+        <v>2700.29687881469</v>
+      </c>
+      <c r="J39">
+        <v>4126.4097690582203</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>20715.339660644513</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>20.715339660644513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10000</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>19223.799228668198</v>
+      </c>
+      <c r="F40">
+        <v>698.01402091979901</v>
+      </c>
+      <c r="G40">
+        <v>1793.3261394500701</v>
+      </c>
+      <c r="H40">
+        <v>55.8917522430419</v>
+      </c>
+      <c r="I40">
+        <v>2718.7948226928702</v>
+      </c>
+      <c r="J40">
+        <v>4568.0925846099799</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>21073.01712036131</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>21.07301712036131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>236750</v>
+      </c>
+      <c r="B41">
+        <v>236750</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>19262.845039367599</v>
+      </c>
+      <c r="F41">
+        <v>696.29406929016102</v>
+      </c>
+      <c r="G41">
+        <v>2342.7915573120099</v>
+      </c>
+      <c r="H41">
+        <v>55.613756179809499</v>
+      </c>
+      <c r="I41">
+        <v>2736.70363426208</v>
+      </c>
+      <c r="J41">
+        <v>5135.2078914642298</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>21661.250352859417</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>21.661250352859419</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L2:L41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>19.07</v>
+      </c>
+      <c r="C9">
+        <v>19.93</v>
+      </c>
+      <c r="D9">
+        <v>19.7</v>
+      </c>
+      <c r="E9">
+        <v>19.68</v>
+      </c>
+      <c r="G9">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="C10">
+        <v>18.84</v>
+      </c>
+      <c r="D10">
+        <v>19.32</v>
+      </c>
+      <c r="E10">
+        <v>19.04</v>
+      </c>
+      <c r="G10">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1600</v>
+      </c>
+      <c r="B11">
+        <v>19.21</v>
+      </c>
+      <c r="C11">
+        <v>19.53</v>
+      </c>
+      <c r="D11">
+        <v>18.37</v>
+      </c>
+      <c r="E11">
+        <v>18.34</v>
+      </c>
+      <c r="G11">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="C15">
+        <v>20.02</v>
+      </c>
+      <c r="D15">
+        <v>19.8</v>
+      </c>
+      <c r="E15">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>19.13</v>
+      </c>
+      <c r="C16">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="D16">
+        <v>19.28</v>
+      </c>
+      <c r="E16">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17">
+        <v>19.54</v>
+      </c>
+      <c r="C17">
+        <v>21.43</v>
+      </c>
+      <c r="D17">
+        <v>20.29</v>
+      </c>
+      <c r="E17">
+        <v>20.72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68B2D9-9202-4C4C-9F06-EFC632090017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F788FF-0D7E-47E1-AE77-485FE19E1CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10068" yWindow="4488" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 trees" sheetId="1" r:id="rId1"/>
-    <sheet name="500 trees" sheetId="2" r:id="rId2"/>
-    <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -129,6 +129,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -2280,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,11 +2405,11 @@
         <v>7434.4809055328296</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K46" si="0">SUM(E3,G3,H3)</f>
         <v>19087.468862533486</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L44" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
         <v>19.087468862533488</v>
       </c>
     </row>
@@ -3571,50 +3575,15 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>100</v>
-      </c>
-      <c r="B33">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>18472.731590270902</v>
-      </c>
-      <c r="F33">
-        <v>626.90854072570801</v>
-      </c>
-      <c r="G33">
-        <v>3044.50464248657</v>
-      </c>
-      <c r="H33">
-        <v>136.284589767456</v>
-      </c>
-      <c r="I33">
-        <v>1638.22412490844</v>
-      </c>
-      <c r="J33">
-        <v>4819.07081604003</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>21653.520822524926</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>21.653520822524925</v>
+        <v>236750</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -3623,38 +3592,38 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>18455.0993442535</v>
+        <v>18472.731590270902</v>
       </c>
       <c r="F34">
-        <v>642.19450950622502</v>
+        <v>626.90854072570801</v>
       </c>
       <c r="G34">
-        <v>2972.63646125793</v>
+        <v>3044.50464248657</v>
       </c>
       <c r="H34">
-        <v>128.09491157531701</v>
+        <v>136.284589767456</v>
       </c>
       <c r="I34">
-        <v>1634.6573829650799</v>
+        <v>1638.22412490844</v>
       </c>
       <c r="J34">
-        <v>4735.4485988616898</v>
+        <v>4819.07081604003</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>21555.830717086748</v>
+        <v>21653.520822524926</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>21.555830717086749</v>
+        <v>21.653520822524925</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B35">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -3663,38 +3632,38 @@
         <v>13</v>
       </c>
       <c r="E35">
-        <v>18359.297752380298</v>
+        <v>18455.0993442535</v>
       </c>
       <c r="F35">
-        <v>633.00800323486305</v>
+        <v>642.19450950622502</v>
       </c>
       <c r="G35">
-        <v>2852.0014286041201</v>
+        <v>2972.63646125793</v>
       </c>
       <c r="H35">
-        <v>115.526437759399</v>
+        <v>128.09491157531701</v>
       </c>
       <c r="I35">
-        <v>1651.79848670959</v>
+        <v>1634.6573829650799</v>
       </c>
       <c r="J35">
-        <v>4619.3809509277298</v>
+        <v>4735.4485988616898</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>21326.825618743816</v>
+        <v>21555.830717086748</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>21.326825618743818</v>
+        <v>21.555830717086749</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="B36">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -3703,78 +3672,78 @@
         <v>13</v>
       </c>
       <c r="E36">
-        <v>18496.319293975801</v>
+        <v>18359.297752380298</v>
       </c>
       <c r="F36">
-        <v>637.70127296447697</v>
+        <v>633.00800323486305</v>
       </c>
       <c r="G36">
-        <v>6002.2306442260697</v>
+        <v>2852.0014286041201</v>
       </c>
       <c r="H36">
-        <v>116.425991058349</v>
+        <v>115.526437759399</v>
       </c>
       <c r="I36">
-        <v>1626.3148784637399</v>
+        <v>1651.79848670959</v>
       </c>
       <c r="J36">
-        <v>7745.0318336486798</v>
+        <v>4619.3809509277298</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>24614.975929260221</v>
+        <v>21326.825618743816</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>24.614975929260222</v>
+        <v>21.326825618743818</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>100</v>
+        <v>236750</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>236750</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>18447.725296020501</v>
+        <v>18496.319293975801</v>
       </c>
       <c r="F37">
-        <v>633.45670700073197</v>
+        <v>637.70127296447697</v>
       </c>
       <c r="G37">
-        <v>1580.3697109222401</v>
+        <v>6002.2306442260697</v>
       </c>
       <c r="H37">
-        <v>127.477645874023</v>
+        <v>116.425991058349</v>
       </c>
       <c r="I37">
-        <v>31909.117221832199</v>
+        <v>1626.3148784637399</v>
       </c>
       <c r="J37">
-        <v>33617.044210433902</v>
+        <v>7745.0318336486798</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>20155.572652816765</v>
+        <v>24614.975929260221</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>20.155572652816765</v>
+        <v>24.614975929260222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3783,38 +3752,38 @@
         <v>14</v>
       </c>
       <c r="E38">
-        <v>18402.052640914899</v>
+        <v>18447.725296020501</v>
       </c>
       <c r="F38">
-        <v>632.91263580322197</v>
+        <v>633.45670700073197</v>
       </c>
       <c r="G38">
-        <v>844.07019615173294</v>
+        <v>1580.3697109222401</v>
       </c>
       <c r="H38">
-        <v>116.420269012451</v>
+        <v>127.477645874023</v>
       </c>
       <c r="I38">
-        <v>29583.273887634201</v>
+        <v>31909.117221832199</v>
       </c>
       <c r="J38">
-        <v>30543.847084045399</v>
+        <v>33617.044210433902</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>19362.543106079083</v>
+        <v>20155.572652816765</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>19.362543106079084</v>
+        <v>20.155572652816765</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B39">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3823,38 +3792,38 @@
         <v>14</v>
       </c>
       <c r="E39">
-        <v>18377.6252269744</v>
+        <v>18402.052640914899</v>
       </c>
       <c r="F39">
-        <v>624.81188774108796</v>
+        <v>632.91263580322197</v>
       </c>
       <c r="G39">
-        <v>774.75810050964299</v>
+        <v>844.07019615173294</v>
       </c>
       <c r="H39">
-        <v>123.207807540893</v>
+        <v>116.420269012451</v>
       </c>
       <c r="I39">
-        <v>33050.506830215403</v>
+        <v>29583.273887634201</v>
       </c>
       <c r="J39">
-        <v>33948.551416397</v>
+        <v>30543.847084045399</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19275.591135024937</v>
+        <v>19362.543106079083</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.275591135024939</v>
+        <v>19.362543106079084</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="B40">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3863,78 +3832,78 @@
         <v>14</v>
       </c>
       <c r="E40">
-        <v>18367.360353469801</v>
+        <v>18377.6252269744</v>
       </c>
       <c r="F40">
-        <v>637.84050941467206</v>
+        <v>624.81188774108796</v>
       </c>
       <c r="G40">
-        <v>927.46639251708905</v>
+        <v>774.75810050964299</v>
       </c>
       <c r="H40">
-        <v>131.565570831298</v>
+        <v>123.207807540893</v>
       </c>
       <c r="I40">
-        <v>88734.1606616973</v>
+        <v>33050.506830215403</v>
       </c>
       <c r="J40">
-        <v>89793.275833129796</v>
+        <v>33948.551416397</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19426.39231681819</v>
+        <v>19275.591135024937</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.426392316818191</v>
+        <v>19.275591135024939</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>100</v>
+        <v>236750</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>236750</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>18306.964874267502</v>
+        <v>18367.360353469801</v>
       </c>
       <c r="F41">
-        <v>640.36059379577603</v>
+        <v>637.84050941467206</v>
       </c>
       <c r="G41">
-        <v>1968.35899353027</v>
+        <v>927.46639251708905</v>
       </c>
       <c r="H41">
-        <v>56.050539016723597</v>
+        <v>131.565570831298</v>
       </c>
       <c r="I41">
-        <v>2558.47120285034</v>
+        <v>88734.1606616973</v>
       </c>
       <c r="J41">
-        <v>4582.9534530639603</v>
+        <v>89793.275833129796</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>20331.374406814495</v>
+        <v>19426.39231681819</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>20.331374406814497</v>
+        <v>19.426392316818191</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -3943,38 +3912,38 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>18452.486753463701</v>
+        <v>18306.964874267502</v>
       </c>
       <c r="F42">
-        <v>670.72105407714798</v>
+        <v>640.36059379577603</v>
       </c>
       <c r="G42">
-        <v>1213.6414051055899</v>
+        <v>1968.35899353027</v>
       </c>
       <c r="H42">
-        <v>55.718421936035099</v>
+        <v>56.050539016723597</v>
       </c>
       <c r="I42">
-        <v>2532.6094627380298</v>
+        <v>2558.47120285034</v>
       </c>
       <c r="J42">
-        <v>3802.03247070312</v>
+        <v>4582.9534530639603</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>19721.846580505327</v>
+        <v>20331.374406814495</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>19.721846580505328</v>
+        <v>20.331374406814497</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B43">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -3983,38 +3952,38 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>18547.738552093499</v>
+        <v>18452.486753463701</v>
       </c>
       <c r="F43">
-        <v>632.20024108886696</v>
+        <v>670.72105407714798</v>
       </c>
       <c r="G43">
-        <v>1586.8809223175001</v>
+        <v>1213.6414051055899</v>
       </c>
       <c r="H43">
-        <v>56.214809417724602</v>
+        <v>55.718421936035099</v>
       </c>
       <c r="I43">
-        <v>2550.30393600463</v>
+        <v>2532.6094627380298</v>
       </c>
       <c r="J43">
-        <v>4193.4649944305402</v>
+        <v>3802.03247070312</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>20190.834283828724</v>
+        <v>19721.846580505327</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>20.190834283828725</v>
+        <v>19.721846580505328</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="B44">
-        <v>236750</v>
+        <v>10000</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -4023,40 +3992,80 @@
         <v>15</v>
       </c>
       <c r="E44">
+        <v>18547.738552093499</v>
+      </c>
+      <c r="F44">
+        <v>632.20024108886696</v>
+      </c>
+      <c r="G44">
+        <v>1586.8809223175001</v>
+      </c>
+      <c r="H44">
+        <v>56.214809417724602</v>
+      </c>
+      <c r="I44">
+        <v>2550.30393600463</v>
+      </c>
+      <c r="J44">
+        <v>4193.4649944305402</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>20190.834283828724</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>20.190834283828725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>236750</v>
+      </c>
+      <c r="B45">
+        <v>236750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
         <v>18553.051471710201</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>646.86012268066395</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>2237.2982501983602</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>56.403398513793903</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>2510.99729537963</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>4804.7795295715296</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>20846.753120422356</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>20.846753120422356</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L44">
+  <conditionalFormatting sqref="L2:L45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4068,7 +4077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G44">
+  <conditionalFormatting sqref="G2:G45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4086,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4207,11 +4216,11 @@
         <v>13646.9283103942</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
         <v>19207.712411880464</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
         <v>19.207712411880465</v>
       </c>
     </row>
@@ -4257,50 +4266,15 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>17256.461143493601</v>
-      </c>
-      <c r="F5">
-        <v>264.77956771850501</v>
-      </c>
-      <c r="G5">
-        <v>3139.4283771514802</v>
-      </c>
-      <c r="H5">
-        <v>121.418476104736</v>
-      </c>
-      <c r="I5">
-        <v>10661.799430847101</v>
-      </c>
-      <c r="J5">
-        <v>13922.702550888</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>20517.30799674982</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>20.517307996749821</v>
+        <v>236750</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4309,38 +4283,38 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>17321.3276863098</v>
+        <v>17256.461143493601</v>
       </c>
       <c r="F6">
-        <v>254.45055961608799</v>
+        <v>264.77956771850501</v>
       </c>
       <c r="G6">
-        <v>2095.4642295837398</v>
+        <v>3139.4283771514802</v>
       </c>
       <c r="H6">
-        <v>117.581844329833</v>
+        <v>121.418476104736</v>
       </c>
       <c r="I6">
-        <v>10505.588054656901</v>
+        <v>10661.799430847101</v>
       </c>
       <c r="J6">
-        <v>12718.6911106109</v>
+        <v>13922.702550888</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>19534.373760223374</v>
+        <v>20517.30799674982</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>19.534373760223374</v>
+        <v>20.517307996749821</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -4349,118 +4323,83 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>17270.067214965798</v>
+        <v>17321.3276863098</v>
       </c>
       <c r="F7">
-        <v>255.76376914977999</v>
+        <v>254.45055961608799</v>
       </c>
       <c r="G7">
-        <v>2444.0131187438901</v>
+        <v>2095.4642295837398</v>
       </c>
       <c r="H7">
-        <v>117.030143737792</v>
+        <v>117.581844329833</v>
       </c>
       <c r="I7">
-        <v>10847.8960990905</v>
+        <v>10505.588054656901</v>
       </c>
       <c r="J7">
-        <v>13408.997535705499</v>
+        <v>12718.6911106109</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>19831.110477447481</v>
+        <v>19534.373760223374</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>19.831110477447481</v>
+        <v>19.534373760223374</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>17291.570663452101</v>
+        <v>17270.067214965798</v>
       </c>
       <c r="F8">
-        <v>265.47598838806101</v>
+        <v>255.76376914977999</v>
       </c>
       <c r="G8">
-        <v>8402.8027057647705</v>
+        <v>2444.0131187438901</v>
       </c>
       <c r="H8">
-        <v>118.19553375244099</v>
+        <v>117.030143737792</v>
       </c>
       <c r="I8">
-        <v>2374.7279644012401</v>
+        <v>10847.8960990905</v>
       </c>
       <c r="J8">
-        <v>10895.792722702001</v>
+        <v>13408.997535705499</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>25812.568902969313</v>
+        <v>19831.110477447481</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>25.812568902969314</v>
+        <v>19.831110477447481</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1000</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>17209.715127944899</v>
-      </c>
-      <c r="F9">
-        <v>256.863355636596</v>
-      </c>
-      <c r="G9">
-        <v>8352.2620201110803</v>
-      </c>
-      <c r="H9">
-        <v>129.60934638977</v>
-      </c>
-      <c r="I9">
-        <v>1130.93161582946</v>
-      </c>
-      <c r="J9">
-        <v>9612.8578186035102</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>25691.58649444575</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>25.691586494445751</v>
+        <v>236750</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4469,38 +4408,38 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>17215.6360149383</v>
+        <v>17291.570663452101</v>
       </c>
       <c r="F10">
-        <v>260.917901992797</v>
+        <v>265.47598838806101</v>
       </c>
       <c r="G10">
-        <v>8174.9970912933304</v>
+        <v>8402.8027057647705</v>
       </c>
       <c r="H10">
-        <v>114.689111709594</v>
+        <v>118.19553375244099</v>
       </c>
       <c r="I10">
-        <v>1135.4913711547799</v>
+        <v>2374.7279644012401</v>
       </c>
       <c r="J10">
-        <v>9425.2338409423792</v>
+        <v>10895.792722702001</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>25505.322217941226</v>
+        <v>25812.568902969313</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>25.505322217941227</v>
+        <v>25.812568902969314</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -4509,118 +4448,118 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>17383.325576782201</v>
+        <v>17209.715127944899</v>
       </c>
       <c r="F11">
-        <v>261.54232025146399</v>
+        <v>256.863355636596</v>
       </c>
       <c r="G11">
-        <v>14243.110656738199</v>
+        <v>8352.2620201110803</v>
       </c>
       <c r="H11">
-        <v>114.596843719482</v>
+        <v>129.60934638977</v>
       </c>
       <c r="I11">
-        <v>1130.00464439392</v>
+        <v>1130.93161582946</v>
       </c>
       <c r="J11">
-        <v>15487.7688884735</v>
+        <v>9612.8578186035102</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>31741.033077239881</v>
+        <v>25691.58649444575</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>31.74103307723988</v>
+        <v>25.691586494445751</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>17228.843450546199</v>
+        <v>17215.6360149383</v>
       </c>
       <c r="F12">
-        <v>260.01262664794899</v>
+        <v>260.917901992797</v>
       </c>
       <c r="G12">
-        <v>1886.4359855651801</v>
+        <v>8174.9970912933304</v>
       </c>
       <c r="H12">
-        <v>118.515253067016</v>
+        <v>114.689111709594</v>
       </c>
       <c r="I12">
-        <v>31802.988767623901</v>
+        <v>1135.4913711547799</v>
       </c>
       <c r="J12">
-        <v>33808.0027103424</v>
+        <v>9425.2338409423792</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>19233.794689178394</v>
+        <v>25505.322217941226</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>19.233794689178396</v>
+        <v>25.505322217941227</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>17187.697172164899</v>
+        <v>17383.325576782201</v>
       </c>
       <c r="F13">
-        <v>259.26852226257301</v>
+        <v>261.54232025146399</v>
       </c>
       <c r="G13">
-        <v>1065.7627582550001</v>
+        <v>14243.110656738199</v>
       </c>
       <c r="H13">
-        <v>119.11654472351</v>
+        <v>114.596843719482</v>
       </c>
       <c r="I13">
-        <v>41030.304193496697</v>
+        <v>1130.00464439392</v>
       </c>
       <c r="J13">
-        <v>42215.2523994445</v>
+        <v>15487.7688884735</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>18372.576475143411</v>
+        <v>31741.033077239881</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>18.372576475143411</v>
+        <v>31.74103307723988</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4629,38 +4568,38 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>17353.251934051499</v>
+        <v>17228.843450546199</v>
       </c>
       <c r="F14">
-        <v>257.64513015747002</v>
+        <v>260.01262664794899</v>
       </c>
       <c r="G14">
-        <v>1149.9035358428901</v>
+        <v>1886.4359855651801</v>
       </c>
       <c r="H14">
-        <v>118.961334228515</v>
+        <v>118.515253067016</v>
       </c>
       <c r="I14">
-        <v>55577.6274204254</v>
+        <v>31802.988767623901</v>
       </c>
       <c r="J14">
-        <v>56846.565008163401</v>
+        <v>33808.0027103424</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>18622.116804122903</v>
+        <v>19233.794689178394</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>18.622116804122903</v>
+        <v>19.233794689178396</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="B15">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4669,118 +4608,118 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>17316.904067993099</v>
+        <v>17187.697172164899</v>
       </c>
       <c r="F15">
-        <v>260.44654846191401</v>
+        <v>259.26852226257301</v>
       </c>
       <c r="G15">
-        <v>1175.3816604614201</v>
+        <v>1065.7627582550001</v>
       </c>
       <c r="H15">
-        <v>116.91594123840299</v>
+        <v>119.11654472351</v>
       </c>
       <c r="I15">
-        <v>239562.51931190401</v>
+        <v>41030.304193496697</v>
       </c>
       <c r="J15">
-        <v>240854.89821434001</v>
+        <v>42215.2523994445</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>18609.20166969292</v>
+        <v>18372.576475143411</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>18.609201669692922</v>
+        <v>18.372576475143411</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>17377.863883972099</v>
+        <v>17353.251934051499</v>
       </c>
       <c r="F16">
-        <v>267.196416854858</v>
+        <v>257.64513015747002</v>
       </c>
       <c r="G16">
-        <v>2164.1194820403998</v>
+        <v>1149.9035358428901</v>
       </c>
       <c r="H16">
-        <v>53.766965866088803</v>
+        <v>118.961334228515</v>
       </c>
       <c r="I16">
-        <v>6933.6671829223596</v>
+        <v>55577.6274204254</v>
       </c>
       <c r="J16">
-        <v>9151.6289710998499</v>
+        <v>56846.565008163401</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19595.750331878589</v>
+        <v>18622.116804122903</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.595750331878591</v>
+        <v>18.622116804122903</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>17220.968008041302</v>
+        <v>17316.904067993099</v>
       </c>
       <c r="F17">
-        <v>261.680841445922</v>
+        <v>260.44654846191401</v>
       </c>
       <c r="G17">
-        <v>1063.5795593261701</v>
+        <v>1175.3816604614201</v>
       </c>
       <c r="H17">
-        <v>53.550004959106403</v>
+        <v>116.91594123840299</v>
       </c>
       <c r="I17">
-        <v>2656.9745540618801</v>
+        <v>239562.51931190401</v>
       </c>
       <c r="J17">
-        <v>3774.1680145263599</v>
+        <v>240854.89821434001</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>18338.09757232658</v>
+        <v>18609.20166969292</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>18.338097572326582</v>
+        <v>18.609201669692922</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B18">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -4789,38 +4728,38 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>17296.297788619901</v>
+        <v>17377.863883972099</v>
       </c>
       <c r="F18">
-        <v>260.077238082885</v>
+        <v>267.196416854858</v>
       </c>
       <c r="G18">
-        <v>1241.3353919982901</v>
+        <v>2164.1194820403998</v>
       </c>
       <c r="H18">
-        <v>53.488254547119098</v>
+        <v>53.766965866088803</v>
       </c>
       <c r="I18">
-        <v>2625.35667419433</v>
+        <v>6933.6671829223596</v>
       </c>
       <c r="J18">
-        <v>3920.25685310363</v>
+        <v>9151.6289710998499</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>18591.121435165311</v>
+        <v>19595.750331878589</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>18.591121435165309</v>
+        <v>19.595750331878591</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="B19">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -4829,118 +4768,118 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>17394.497394561698</v>
+        <v>17220.968008041302</v>
       </c>
       <c r="F19">
-        <v>259.98258590698202</v>
+        <v>261.680841445922</v>
       </c>
       <c r="G19">
-        <v>933.32934379577603</v>
+        <v>1063.5795593261701</v>
       </c>
       <c r="H19">
-        <v>53.5070896148681</v>
+        <v>53.550004959106403</v>
       </c>
       <c r="I19">
-        <v>2630.40113449096</v>
+        <v>2656.9745540618801</v>
       </c>
       <c r="J19">
-        <v>3617.3107624053901</v>
+        <v>3774.1680145263599</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>18381.333827972343</v>
+        <v>18338.09757232658</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>18.381333827972345</v>
+        <v>18.338097572326582</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>17288.002014160102</v>
+        <v>17296.297788619901</v>
       </c>
       <c r="F20">
-        <v>258.93330574035599</v>
+        <v>260.077238082885</v>
       </c>
       <c r="G20">
-        <v>165063.156604766</v>
+        <v>1241.3353919982901</v>
       </c>
       <c r="H20">
-        <v>118.1640625</v>
+        <v>53.488254547119098</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2625.35667419433</v>
       </c>
       <c r="J20">
-        <v>165183.17341804499</v>
+        <v>3920.25685310363</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>182469.3226814261</v>
+        <v>18591.121435165311</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>182.46932268142609</v>
+        <v>18.591121435165309</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>17131.476640701199</v>
+        <v>17394.497394561698</v>
       </c>
       <c r="F21">
-        <v>257.11250305175702</v>
+        <v>259.98258590698202</v>
       </c>
       <c r="G21">
-        <v>19674.597024917599</v>
+        <v>933.32934379577603</v>
       </c>
       <c r="H21">
-        <v>113.437414169311</v>
+        <v>53.5070896148681</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2630.40113449096</v>
       </c>
       <c r="J21">
-        <v>19789.9074554443</v>
+        <v>3617.3107624053901</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>36919.511079788106</v>
+        <v>18381.333827972343</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>36.919511079788109</v>
+        <v>18.381333827972345</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -4949,38 +4888,38 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>17149.045228958101</v>
+        <v>17288.002014160102</v>
       </c>
       <c r="F22">
-        <v>260.05005836486799</v>
+        <v>258.93330574035599</v>
       </c>
       <c r="G22">
-        <v>7559.5235824584897</v>
+        <v>165063.156604766</v>
       </c>
       <c r="H22">
-        <v>121.980190277099</v>
+        <v>118.1640625</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7683.3946704864502</v>
+        <v>165183.17341804499</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>24830.549001693689</v>
+        <v>182469.3226814261</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>24.83054900169369</v>
+        <v>182.46932268142609</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>236750</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -4989,118 +4928,118 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <v>17131.488800048799</v>
+        <v>17131.476640701199</v>
       </c>
       <c r="F23">
-        <v>257.07435607910099</v>
+        <v>257.11250305175702</v>
       </c>
       <c r="G23">
-        <v>9019.1824436187708</v>
+        <v>19674.597024917599</v>
       </c>
       <c r="H23">
-        <v>115.135431289672</v>
+        <v>113.437414169311</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9136.2526416778492</v>
+        <v>19789.9074554443</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>26265.806674957243</v>
+        <v>36919.511079788106</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>26.265806674957243</v>
+        <v>36.919511079788109</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>17463.215589523301</v>
+        <v>17149.045228958101</v>
       </c>
       <c r="F24">
-        <v>712.55683898925702</v>
+        <v>260.05005836486799</v>
       </c>
       <c r="G24">
-        <v>3232.1503162384001</v>
+        <v>7559.5235824584897</v>
       </c>
       <c r="H24">
-        <v>118.95751953125</v>
+        <v>121.980190277099</v>
       </c>
       <c r="I24">
-        <v>9517.8604125976508</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12869.0619468688</v>
+        <v>7683.3946704864502</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>20814.323425292951</v>
+        <v>24830.549001693689</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>20.814323425292951</v>
+        <v>24.83054900169369</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="B25">
-        <v>1000</v>
+        <v>236750</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>18411.387681961001</v>
+        <v>17131.488800048799</v>
       </c>
       <c r="F25">
-        <v>649.30796623229901</v>
+        <v>257.07435607910099</v>
       </c>
       <c r="G25">
-        <v>1795.1977252960201</v>
+        <v>9019.1824436187708</v>
       </c>
       <c r="H25">
-        <v>130.584239959716</v>
+        <v>115.135431289672</v>
       </c>
       <c r="I25">
-        <v>9587.6889228820801</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>11513.5238170623</v>
+        <v>9136.2526416778492</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>20337.169647216739</v>
+        <v>26265.806674957243</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>20.33716964721674</v>
+        <v>26.265806674957243</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -5109,150 +5048,115 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>17576.075077056801</v>
+        <v>17463.215589523301</v>
       </c>
       <c r="F26">
-        <v>651.13544464111305</v>
+        <v>712.55683898925702</v>
       </c>
       <c r="G26">
-        <v>1839.4808769225999</v>
+        <v>3232.1503162384001</v>
       </c>
       <c r="H26">
-        <v>127.965211868286</v>
+        <v>118.95751953125</v>
       </c>
       <c r="I26">
-        <v>9596.1050987243598</v>
+        <v>9517.8604125976508</v>
       </c>
       <c r="J26">
-        <v>11563.6420249938</v>
+        <v>12869.0619468688</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>19543.521165847687</v>
+        <v>20814.323425292951</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>19.54352116584769</v>
+        <v>20.814323425292951</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>19257.731676101601</v>
+        <v>18411.387681961001</v>
       </c>
       <c r="F27">
-        <v>696.40040397643997</v>
+        <v>649.30796623229901</v>
       </c>
       <c r="G27">
-        <v>2961.0936641693102</v>
+        <v>1795.1977252960201</v>
       </c>
       <c r="H27">
-        <v>122.990608215332</v>
+        <v>130.584239959716</v>
       </c>
       <c r="I27">
-        <v>9182.2867393493598</v>
+        <v>9587.6889228820801</v>
       </c>
       <c r="J27">
-        <v>12266.4422988891</v>
+        <v>11513.5238170623</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>22341.815948486244</v>
+        <v>20337.169647216739</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>22.341815948486246</v>
+        <v>20.33716964721674</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B28">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>19163.799285888599</v>
+        <v>17576.075077056801</v>
       </c>
       <c r="F28">
-        <v>696.33102416992097</v>
+        <v>651.13544464111305</v>
       </c>
       <c r="G28">
-        <v>2149.8351097106902</v>
+        <v>1839.4808769225999</v>
       </c>
       <c r="H28">
-        <v>119.55165863037099</v>
+        <v>127.965211868286</v>
       </c>
       <c r="I28">
-        <v>9135.3955268859809</v>
+        <v>9596.1050987243598</v>
       </c>
       <c r="J28">
-        <v>11404.853105545</v>
+        <v>11563.6420249938</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>21433.18605422966</v>
+        <v>19543.521165847687</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>21.433186054229662</v>
+        <v>19.54352116584769</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>10000</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>19170.925140380801</v>
-      </c>
-      <c r="F29">
-        <v>695.06120681762695</v>
-      </c>
-      <c r="G29">
-        <v>2488.3682727813698</v>
-      </c>
-      <c r="H29">
-        <v>120.079755783081</v>
-      </c>
-      <c r="I29">
-        <v>9444.4026947021393</v>
-      </c>
-      <c r="J29">
-        <v>12052.9205799102</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>21779.373168945251</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>21.779373168945252</v>
+        <v>236750</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -5266,33 +5170,33 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>19320.214748382499</v>
+        <v>19257.731676101601</v>
       </c>
       <c r="F30">
-        <v>702.37660408019997</v>
+        <v>696.40040397643997</v>
       </c>
       <c r="G30">
-        <v>5806.5049648284903</v>
+        <v>2961.0936641693102</v>
       </c>
       <c r="H30">
-        <v>117.716789245605</v>
+        <v>122.990608215332</v>
       </c>
       <c r="I30">
-        <v>2134.6383094787502</v>
+        <v>9182.2867393493598</v>
       </c>
       <c r="J30">
-        <v>8058.9146614074698</v>
+        <v>12266.4422988891</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>25244.436502456596</v>
+        <v>22341.815948486244</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>25.244436502456598</v>
+        <v>22.341815948486246</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -5306,33 +5210,33 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>19150.065660476601</v>
+        <v>19163.799285888599</v>
       </c>
       <c r="F31">
-        <v>699.65267181396405</v>
+        <v>696.33102416992097</v>
       </c>
       <c r="G31">
-        <v>5050.8272647857602</v>
+        <v>2149.8351097106902</v>
       </c>
       <c r="H31">
-        <v>116.395711898803</v>
+        <v>119.55165863037099</v>
       </c>
       <c r="I31">
-        <v>2099.0657806396398</v>
+        <v>9135.3955268859809</v>
       </c>
       <c r="J31">
-        <v>7266.3478851318296</v>
+        <v>11404.853105545</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>24317.288637161164</v>
+        <v>21433.18605422966</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>24.317288637161166</v>
+        <v>21.433186054229662</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -5346,74 +5250,39 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>19152.746438980099</v>
+        <v>19170.925140380801</v>
       </c>
       <c r="F32">
-        <v>704.93698120117097</v>
+        <v>695.06120681762695</v>
       </c>
       <c r="G32">
-        <v>9469.9709415435791</v>
+        <v>2488.3682727813698</v>
       </c>
       <c r="H32">
-        <v>116.98293685913001</v>
+        <v>120.079755783081</v>
       </c>
       <c r="I32">
-        <v>2097.2273349761899</v>
+        <v>9444.4026947021393</v>
       </c>
       <c r="J32">
-        <v>11684.2370033264</v>
+        <v>12052.9205799102</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>28739.700317382809</v>
+        <v>21779.373168945251</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>28.739700317382809</v>
+        <v>21.779373168945252</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>236750</v>
       </c>
-      <c r="B33">
-        <v>236750</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>19198.776721954298</v>
-      </c>
-      <c r="F33">
-        <v>697.86310195922795</v>
-      </c>
-      <c r="G33">
-        <v>12587.159872054999</v>
-      </c>
-      <c r="H33">
-        <v>120.42331695556599</v>
-      </c>
-      <c r="I33">
-        <v>2091.9759273528998</v>
-      </c>
-      <c r="J33">
-        <v>14799.620151519701</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>31906.359910964864</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>31.906359910964866</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -5426,33 +5295,33 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>19289.943218231201</v>
+        <v>19320.214748382499</v>
       </c>
       <c r="F34">
-        <v>695.32203674316395</v>
+        <v>702.37660408019997</v>
       </c>
       <c r="G34">
-        <v>1908.3926677703801</v>
+        <v>5806.5049648284903</v>
       </c>
       <c r="H34">
-        <v>119.101762771606</v>
+        <v>117.716789245605</v>
       </c>
       <c r="I34">
-        <v>27366.858720779401</v>
+        <v>2134.6383094787502</v>
       </c>
       <c r="J34">
-        <v>29394.447088241501</v>
+        <v>8058.9146614074698</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>21317.437648773186</v>
+        <v>25244.436502456596</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>21.317437648773186</v>
+        <v>25.244436502456598</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5466,33 +5335,33 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>19105.5512428283</v>
+        <v>19150.065660476601</v>
       </c>
       <c r="F35">
-        <v>695.02329826354901</v>
+        <v>699.65267181396405</v>
       </c>
       <c r="G35">
-        <v>1063.0600452423</v>
+        <v>5050.8272647857602</v>
       </c>
       <c r="H35">
-        <v>118.233203887939</v>
+        <v>116.395711898803</v>
       </c>
       <c r="I35">
-        <v>37907.004117965698</v>
+        <v>2099.0657806396398</v>
       </c>
       <c r="J35">
-        <v>39088.3827209472</v>
+        <v>7266.3478851318296</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>20286.844491958538</v>
+        <v>24317.288637161164</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>20.28684449195854</v>
+        <v>24.317288637161166</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5506,33 +5375,33 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>19268.575191497799</v>
+        <v>19152.746438980099</v>
       </c>
       <c r="F36">
-        <v>693.51840019225995</v>
+        <v>704.93698120117097</v>
       </c>
       <c r="G36">
-        <v>1200.5195617675699</v>
+        <v>9469.9709415435791</v>
       </c>
       <c r="H36">
-        <v>119.72165107727</v>
+        <v>116.98293685913001</v>
       </c>
       <c r="I36">
-        <v>52966.340303420999</v>
+        <v>2097.2273349761899</v>
       </c>
       <c r="J36">
-        <v>54286.667823791497</v>
+        <v>11684.2370033264</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>20588.81640434264</v>
+        <v>28739.700317382809</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>20.588816404342641</v>
+        <v>28.739700317382809</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,33 +5415,33 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>19468.5170650482</v>
+        <v>19198.776721954298</v>
       </c>
       <c r="F37">
-        <v>700.369834899902</v>
+        <v>697.86310195922795</v>
       </c>
       <c r="G37">
-        <v>1161.7977619171099</v>
+        <v>12587.159872054999</v>
       </c>
       <c r="H37">
-        <v>128.87454032897901</v>
+        <v>120.42331695556599</v>
       </c>
       <c r="I37">
-        <v>240208.851575851</v>
+        <v>2091.9759273528998</v>
       </c>
       <c r="J37">
-        <v>241499.608039855</v>
+        <v>14799.620151519701</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>20759.18936729429</v>
+        <v>31906.359910964864</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>20.75918936729429</v>
+        <v>31.906359910964866</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -5586,33 +5455,33 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>19198.0357170104</v>
+        <v>19289.943218231201</v>
       </c>
       <c r="F38">
-        <v>692.72089004516602</v>
+        <v>695.32203674316395</v>
       </c>
       <c r="G38">
-        <v>2204.2834758758499</v>
+        <v>1908.3926677703801</v>
       </c>
       <c r="H38">
-        <v>55.134534835815401</v>
+        <v>119.101762771606</v>
       </c>
       <c r="I38">
-        <v>2762.5889778137198</v>
+        <v>27366.858720779401</v>
       </c>
       <c r="J38">
-        <v>5022.0930576324399</v>
+        <v>29394.447088241501</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>21457.453727722066</v>
+        <v>21317.437648773186</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>21.457453727722065</v>
+        <v>21.317437648773186</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -5626,33 +5495,33 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>19289.307594299298</v>
+        <v>19105.5512428283</v>
       </c>
       <c r="F39">
-        <v>694.529771804809</v>
+        <v>695.02329826354901</v>
       </c>
       <c r="G39">
-        <v>1370.55492401123</v>
+        <v>1063.0600452423</v>
       </c>
       <c r="H39">
-        <v>55.477142333984297</v>
+        <v>118.233203887939</v>
       </c>
       <c r="I39">
-        <v>2700.29687881469</v>
+        <v>37907.004117965698</v>
       </c>
       <c r="J39">
-        <v>4126.4097690582203</v>
+        <v>39088.3827209472</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>20715.339660644513</v>
+        <v>20286.844491958538</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>20.715339660644513</v>
+        <v>20.28684449195854</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -5666,33 +5535,33 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>19223.799228668198</v>
+        <v>19268.575191497799</v>
       </c>
       <c r="F40">
-        <v>698.01402091979901</v>
+        <v>693.51840019225995</v>
       </c>
       <c r="G40">
-        <v>1793.3261394500701</v>
+        <v>1200.5195617675699</v>
       </c>
       <c r="H40">
-        <v>55.8917522430419</v>
+        <v>119.72165107727</v>
       </c>
       <c r="I40">
-        <v>2718.7948226928702</v>
+        <v>52966.340303420999</v>
       </c>
       <c r="J40">
-        <v>4568.0925846099799</v>
+        <v>54286.667823791497</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>21073.01712036131</v>
+        <v>20588.81640434264</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>21.07301712036131</v>
+        <v>20.588816404342641</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -5706,37 +5575,197 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>19468.5170650482</v>
+      </c>
+      <c r="F41">
+        <v>700.369834899902</v>
+      </c>
+      <c r="G41">
+        <v>1161.7977619171099</v>
+      </c>
+      <c r="H41">
+        <v>128.87454032897901</v>
+      </c>
+      <c r="I41">
+        <v>240208.851575851</v>
+      </c>
+      <c r="J41">
+        <v>241499.608039855</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>20759.18936729429</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>20.75918936729429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="E42">
+        <v>19198.0357170104</v>
+      </c>
+      <c r="F42">
+        <v>692.72089004516602</v>
+      </c>
+      <c r="G42">
+        <v>2204.2834758758499</v>
+      </c>
+      <c r="H42">
+        <v>55.134534835815401</v>
+      </c>
+      <c r="I42">
+        <v>2762.5889778137198</v>
+      </c>
+      <c r="J42">
+        <v>5022.0930576324399</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>21457.453727722066</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>21.457453727722065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>1000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>19289.307594299298</v>
+      </c>
+      <c r="F43">
+        <v>694.529771804809</v>
+      </c>
+      <c r="G43">
+        <v>1370.55492401123</v>
+      </c>
+      <c r="H43">
+        <v>55.477142333984297</v>
+      </c>
+      <c r="I43">
+        <v>2700.29687881469</v>
+      </c>
+      <c r="J43">
+        <v>4126.4097690582203</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>20715.339660644513</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>20.715339660644513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10000</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>19223.799228668198</v>
+      </c>
+      <c r="F44">
+        <v>698.01402091979901</v>
+      </c>
+      <c r="G44">
+        <v>1793.3261394500701</v>
+      </c>
+      <c r="H44">
+        <v>55.8917522430419</v>
+      </c>
+      <c r="I44">
+        <v>2718.7948226928702</v>
+      </c>
+      <c r="J44">
+        <v>4568.0925846099799</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>21073.01712036131</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>21.07301712036131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>236750</v>
+      </c>
+      <c r="B45">
+        <v>236750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
         <v>19262.845039367599</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>696.29406929016102</v>
       </c>
-      <c r="G41">
+      <c r="G45">
         <v>2342.7915573120099</v>
       </c>
-      <c r="H41">
+      <c r="H45">
         <v>55.613756179809499</v>
       </c>
-      <c r="I41">
+      <c r="I45">
         <v>2736.70363426208</v>
       </c>
-      <c r="J41">
+      <c r="J45">
         <v>5135.2078914642298</v>
       </c>
-      <c r="K41">
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>21661.250352859417</v>
       </c>
-      <c r="L41">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>21.661250352859419</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L41">
+  <conditionalFormatting sqref="L2:L45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5748,7 +5777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G41">
+  <conditionalFormatting sqref="G2:G45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5768,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5834,60 +5863,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>19.07</v>
-      </c>
-      <c r="C9">
-        <v>19.93</v>
-      </c>
-      <c r="D9">
-        <v>19.7</v>
-      </c>
-      <c r="E9">
-        <v>19.68</v>
-      </c>
-      <c r="G9">
-        <v>24.33</v>
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
+        <v>19.066560745239208</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
+        <v>19.928592681884759</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
+        <v>19.703780174255275</v>
+      </c>
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
+        <v>19.681432485580419</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
+        <v>24.326084613799978</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="C10">
-        <v>18.84</v>
-      </c>
-      <c r="D10">
-        <v>19.32</v>
-      </c>
-      <c r="E10">
-        <v>19.04</v>
-      </c>
-      <c r="G10">
-        <v>25.56</v>
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
+        <v>18.76166534423826</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
+        <v>18.84018039703367</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
+        <v>19.315366268157891</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
+        <v>19.038146734237667</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
+        <v>25.553627252578682</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>19.21</v>
-      </c>
-      <c r="C11">
-        <v>19.53</v>
-      </c>
-      <c r="D11">
-        <v>18.37</v>
-      </c>
-      <c r="E11">
-        <v>18.34</v>
-      </c>
-      <c r="G11">
-        <v>24.83</v>
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
+        <v>19.207712411880465</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
+        <v>19.534373760223374</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
+        <v>18.372576475143411</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
+        <v>18.338097572326582</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
+        <v>24.83054900169369</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -5913,54 +5960,67 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="C15">
-        <v>20.02</v>
-      </c>
-      <c r="D15">
-        <v>19.8</v>
-      </c>
-      <c r="E15">
-        <v>19.95</v>
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
+        <v>19.15141105651853</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L30:'10_trees'!L33)</f>
+        <v>20.020542383193931</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
+        <v>19.803698539733805</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
+        <v>19.953703641891476</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>19.13</v>
-      </c>
-      <c r="C16">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="D16">
-        <v>19.28</v>
-      </c>
-      <c r="E16">
-        <v>19.72</v>
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
+        <v>19.129885673522889</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L30:'500_trees'!L33)</f>
+        <v>20.23624372482298</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
+        <v>19.275591135024939</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
+        <v>19.721846580505328</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
-        <v>19.54</v>
-      </c>
-      <c r="C17">
-        <v>21.43</v>
-      </c>
-      <c r="D17">
-        <v>20.29</v>
-      </c>
-      <c r="E17">
-        <v>20.72</v>
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
+        <v>19.54352116584769</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L30:'1600_trees'!L33)</f>
+        <v>21.433186054229662</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
+        <v>20.28684449195854</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
+        <v>20.715339660644513</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F788FF-0D7E-47E1-AE77-485FE19E1CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF81AC2-7EFE-4F0D-B396-77D9AC188715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="28">
   <si>
     <t>query size</t>
   </si>
@@ -179,6 +179,4778 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.066560745239208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.76166534423826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.207712411880465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA22-4456-9BFC-4C496BCBC626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.928592681884759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.84018039703367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.534373760223374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA22-4456-9BFC-4C496BCBC626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.703780174255275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.315366268157891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.372576475143411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA22-4456-9BFC-4C496BCBC626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.681432485580419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.038146734237667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.338097572326582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA22-4456-9BFC-4C496BCBC626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.326084613799978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.553627252578682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.83054900169369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA22-4456-9BFC-4C496BCBC626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2114293935"/>
+        <c:axId val="2114293519"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-BA22-4456-9BFC-4C496BCBC626}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114293935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114293519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114293519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114293935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch LightGBM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.15141105651853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.129885673522889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.54352116584769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-652D-48F1-99B2-FEF6F1190846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.020542383193931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.23624372482298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.433186054229662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-652D-48F1-99B2-FEF6F1190846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.803698539733805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.275591135024939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.28684449195854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-652D-48F1-99B2-FEF6F1190846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.953703641891476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.721846580505328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.715339660644513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-652D-48F1-99B2-FEF6F1190846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="254264063"/>
+        <c:axId val="254265727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254264063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254265727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254265727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254264063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch XGBoost Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>212.05902099609301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>685.26220321655205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1796.6933250427201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA73-49FA-8C7F-B816C6C4FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1234.35497283935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1126.6036033630301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2095.4642295837398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA73-49FA-8C7F-B816C6C4FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>715.94667434692303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>863.25693130493096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1065.7627582550001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA73-49FA-8C7F-B816C6C4FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>857.46645927429199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904.21175956725995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>933.32934379577603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA73-49FA-8C7F-B816C6C4FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5402.0972251891999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7239.9168014526304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7559.5235824584897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FA73-49FA-8C7F-B816C6C4FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428840511"/>
+        <c:axId val="428838847"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$Q$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$L$9:$L$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$Q$9:$Q$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-FA73-49FA-8C7F-B816C6C4FF49}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428840511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428838847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428838847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428840511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LightGBM inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$13:$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>216.752529144287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682.71160125732399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1795.1977252960201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AAC-44BE-9E05-8CB6B71A449A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$13:$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1120.81384658813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1564.9278163909901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2149.8351097106902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AAC-44BE-9E05-8CB6B71A449A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$13:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>710.74366569518997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>774.75810050964299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1063.0600452423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AAC-44BE-9E05-8CB6B71A449A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$13:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1186.31029129028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1213.6414051055899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1370.55492401123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5AAC-44BE-9E05-8CB6B71A449A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="450238031"/>
+        <c:axId val="450223055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450238031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450223055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450223055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450238031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B4007E-DB4D-DA20-D8C9-D130229D4524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DB9E68-3145-3ADA-C298-F0886AA7CC4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D881F7F-9988-C214-2A4D-6C95AC714419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CEBF38-9EC6-8D4C-C085-115D630ACE64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5795,20 +10567,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -5821,28 +10596,52 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -5858,8 +10657,23 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -5884,8 +10698,32 @@
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
         <v>24.326084613799978</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G5)</f>
+        <v>212.05902099609301</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G6:'10_trees'!G9)</f>
+        <v>1234.35497283935</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G14:'10_trees'!G17)</f>
+        <v>715.94667434692303</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G18:'10_trees'!G21)</f>
+        <v>857.46645927429199</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <f>MIN('10_trees'!G22:'10_trees'!G25)</f>
+        <v>5402.0972251891999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -5910,8 +10748,32 @@
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
         <v>25.553627252578682</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G5)</f>
+        <v>685.26220321655205</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G6:'500_trees'!G9)</f>
+        <v>1126.6036033630301</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G14:'500_trees'!G17)</f>
+        <v>863.25693130493096</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G18:'500_trees'!G21)</f>
+        <v>904.21175956725995</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
+        <f>MIN('500_trees'!G22:'500_trees'!G25)</f>
+        <v>7239.9168014526304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -5936,13 +10798,40 @@
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
         <v>24.83054900169369</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1600</v>
+      </c>
+      <c r="M11" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G5)</f>
+        <v>1796.6933250427201</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G6:'1600_trees'!G9)</f>
+        <v>2095.4642295837398</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G14:'1600_trees'!G17)</f>
+        <v>1065.7627582550001</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G18:'1600_trees'!G21)</f>
+        <v>933.32934379577603</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <f>MIN('1600_trees'!G22:'1600_trees'!G25)</f>
+        <v>7559.5235824584897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -5955,8 +10844,20 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5976,8 +10877,27 @@
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
         <v>19.953703641891476</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <f>MIN('10_trees'!G26:'10_trees'!G29)</f>
+        <v>216.752529144287</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G30:'10_trees'!G33)</f>
+        <v>1120.81384658813</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G38:'10_trees'!G41)</f>
+        <v>710.74366569518997</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G42:'10_trees'!G45)</f>
+        <v>1186.31029129028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -5997,8 +10917,27 @@
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
         <v>19.721846580505328</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16" s="1">
+        <f>MIN('500_trees'!G26:'500_trees'!G29)</f>
+        <v>682.71160125732399</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G30:'500_trees'!G33)</f>
+        <v>1564.9278163909901</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G38:'500_trees'!G41)</f>
+        <v>774.75810050964299</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G42:'500_trees'!G45)</f>
+        <v>1213.6414051055899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -6018,9 +10957,29 @@
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
         <v>20.715339660644513</v>
       </c>
+      <c r="L17">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="1">
+        <f>MIN('1600_trees'!G26:'1600_trees'!G29)</f>
+        <v>1795.1977252960201</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G30:'1600_trees'!G33)</f>
+        <v>2149.8351097106902</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G38:'1600_trees'!G41)</f>
+        <v>1063.0600452423</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G42:'1600_trees'!G45)</f>
+        <v>1370.55492401123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF81AC2-7EFE-4F0D-B396-77D9AC188715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274FD60-4E98-4CD7-9B64-40F789A4C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10200" yWindow="4512" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="29">
   <si>
     <t>query size</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>LightGBM</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -182,1227 +185,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Bosch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> XGBoost total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.066560745239208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.76166534423826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.207712411880465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA22-4456-9BFC-4C496BCBC626}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.928592681884759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.84018039703367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.534373760223374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA22-4456-9BFC-4C496BCBC626}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.703780174255275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.315366268157891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.372576475143411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA22-4456-9BFC-4C496BCBC626}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.681432485580419</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.038146734237667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.338097572326582</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BA22-4456-9BFC-4C496BCBC626}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>24.326084613799978</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.553627252578682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.83054900169369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BA22-4456-9BFC-4C496BCBC626}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2114293935"/>
-        <c:axId val="2114293519"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-BA22-4456-9BFC-4C496BCBC626}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2114293935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2114293519"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2114293519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2114293935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Bosch LightGBM</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.15141105651853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.129885673522889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.54352116584769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-652D-48F1-99B2-FEF6F1190846}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.020542383193931</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.23624372482298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.433186054229662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-652D-48F1-99B2-FEF6F1190846}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.803698539733805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.275591135024939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.28684449195854</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-652D-48F1-99B2-FEF6F1190846}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>19.953703641891476</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.721846580505328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.715339660644513</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-652D-48F1-99B2-FEF6F1190846}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="254264063"/>
-        <c:axId val="254265727"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="254264063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254265727"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254265727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254264063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2082,7 +864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2553,6 +1335,2334 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="450238031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGboost Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.066560745239208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.76166534423826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.207712411880465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.928592681884759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.84018039703367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.534373760223374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.703780174255275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.315366268157891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.372576475143411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.681432485580419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.038146734237667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.338097572326582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.326084613799978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.553627252578682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.83054900169369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8683-439D-ADD0-35CE36A89E5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597436879"/>
+        <c:axId val="597441039"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8683-439D-ADD0-35CE36A89E5B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597436879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597441039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597441039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597436879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bosch lightGBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.15141105651853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.129885673522889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.54352116584769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4051-4BC5-951D-903825FA9806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.020542383193931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.23624372482298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.433186054229662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4051-4BC5-951D-903825FA9806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.803698539733805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.275591135024939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.28684449195854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4051-4BC5-951D-903825FA9806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.953703641891476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.721846580505328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.715339660644513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4051-4BC5-951D-903825FA9806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4051-4BC5-951D-903825FA9806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="714089567"/>
+        <c:axId val="714088319"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-4051-4BC5-951D-903825FA9806}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-4051-4BC5-951D-903825FA9806}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="714089567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714088319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="714088319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714089567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4808,78 +5918,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B4007E-DB4D-DA20-D8C9-D130229D4524}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DB9E68-3145-3ADA-C298-F0886AA7CC4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -4908,7 +5946,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4933,6 +5971,78 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CEBF38-9EC6-8D4C-C085-115D630ACE64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D06BDE5-6353-F231-7E5B-D06DFE0123EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6639D19-ABC1-46FF-941F-6A868DCD9B29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10569,8 +11679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10596,6 +11706,9 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
@@ -10656,6 +11769,9 @@
       </c>
       <c r="G8" t="s">
         <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
@@ -10698,6 +11814,9 @@
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
         <v>24.326084613799978</v>
       </c>
+      <c r="H9">
+        <v>22.6</v>
+      </c>
       <c r="L9">
         <v>10</v>
       </c>
@@ -10748,6 +11867,9 @@
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
         <v>25.553627252578682</v>
       </c>
+      <c r="H10">
+        <v>23.4</v>
+      </c>
       <c r="L10">
         <v>500</v>
       </c>
@@ -10798,6 +11920,9 @@
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
         <v>24.83054900169369</v>
       </c>
+      <c r="H11">
+        <v>28.2</v>
+      </c>
       <c r="L11">
         <v>1600</v>
       </c>
@@ -10844,6 +11969,9 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
@@ -10877,6 +12005,9 @@
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
         <v>19.953703641891476</v>
       </c>
+      <c r="H15">
+        <v>22.6</v>
+      </c>
       <c r="L15">
         <v>10</v>
       </c>
@@ -10917,6 +12048,9 @@
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
         <v>19.721846580505328</v>
       </c>
+      <c r="H16">
+        <v>24.4</v>
+      </c>
       <c r="L16">
         <v>500</v>
       </c>
@@ -10956,6 +12090,9 @@
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
         <v>20.715339660644513</v>
+      </c>
+      <c r="H17">
+        <v>27.1</v>
       </c>
       <c r="L17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274FD60-4E98-4CD7-9B64-40F789A4C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B18679-AA66-46B4-AB4E-3CCB86C838C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10200" yWindow="4512" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -1602,13 +1605,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.066560745239208</c:v>
+                  <c:v>18.976842962148517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.76166534423826</c:v>
+                  <c:v>19.462865911367267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.207712411880465</c:v>
+                  <c:v>20.562939487340774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,13 +1729,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.928592681884759</c:v>
+                  <c:v>20.004144988897171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.84018039703367</c:v>
+                  <c:v>19.898806177022777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.534373760223374</c:v>
+                  <c:v>20.861352287175983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,13 +1853,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.703780174255275</c:v>
+                  <c:v>19.481300912740558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.315366268157891</c:v>
+                  <c:v>19.63391216838631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.372576475143411</c:v>
+                  <c:v>19.833185516240921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,13 +1977,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.681432485580419</c:v>
+                  <c:v>19.563212715032428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.038146734237667</c:v>
+                  <c:v>19.606839738729327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.338097572326582</c:v>
+                  <c:v>19.635142646673053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,13 +2101,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.326084613799978</c:v>
+                  <c:v>24.167070947530586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.553627252578682</c:v>
+                  <c:v>26.002329669835888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.83054900169369</c:v>
+                  <c:v>26.329809985997997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,13 +2765,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.15141105651853</c:v>
+                  <c:v>18.983917079809039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.129885673522889</c:v>
+                  <c:v>19.458410583379596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.54352116584769</c:v>
+                  <c:v>20.574088178518146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,13 +2889,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.020542383193931</c:v>
+                  <c:v>19.887289844396438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.23624372482298</c:v>
+                  <c:v>20.330297313573688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.433186054229662</c:v>
+                  <c:v>20.917692981603469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,13 +3013,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.803698539733805</c:v>
+                  <c:v>19.477606616857379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.275591135024939</c:v>
+                  <c:v>19.546272121312946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.28684449195854</c:v>
+                  <c:v>19.829599462392647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,13 +3137,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.953703641891476</c:v>
+                  <c:v>19.896607719304885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.721846580505328</c:v>
+                  <c:v>19.917666040304034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.715339660644513</c:v>
+                  <c:v>20.074338279607623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3433,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$14</c15:sqref>
@@ -3490,7 +3493,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3512,7 +3515,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -3536,7 +3539,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -3549,7 +3552,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-4051-4BC5-951D-903825FA9806}"/>
                   </c:ext>
@@ -6326,10 +6329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6407,12 +6410,12 @@
         <v>166376.04093551601</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>24004.59074974055</v>
+        <f>SUM($E$47,G2,H2)</f>
+        <v>23960.940204503859</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>24.004590749740551</v>
+        <v>23.96094020450386</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -6447,12 +6450,12 @@
         <v>5140.46144485473</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
-        <v>19411.770582199086</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
+        <v>19384.569488408892</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>19.411770582199086</v>
+        <v>19.384569488408893</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -6488,11 +6491,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>19204.632997512745</v>
+        <v>19244.267784002153</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>19.204632997512746</v>
+        <v>19.244267784002155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6528,11 +6531,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>19066.560745239207</v>
+        <v>18976.842962148516</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>19.066560745239208</v>
+        <v>18.976842962148517</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6568,11 +6571,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>30822.041749954034</v>
+        <v>30783.090911748644</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>30.822041749954035</v>
+        <v>30.783090911748644</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -6608,11 +6611,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>20125.18310546867</v>
+        <v>20245.852075460276</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>20.125183105468672</v>
+        <v>20.245852075460277</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6648,11 +6651,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>20707.960367202675</v>
+        <v>20640.229307058184</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20.707960367202677</v>
+        <v>20.640229307058185</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6688,11 +6691,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>19928.592681884758</v>
+        <v>20004.144988897169</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>19.928592681884759</v>
+        <v>20.004144988897171</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -6728,11 +6731,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>101963.18888664237</v>
+        <v>101919.60128391057</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>101.96318888664237</v>
+        <v>101.91960128391057</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -6768,11 +6771,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>20357.100725173907</v>
+        <v>20299.813590886915</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>20.357100725173908</v>
+        <v>20.299813590886917</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -6808,11 +6811,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>20498.423576354948</v>
+        <v>20520.043931844553</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>20.498423576354948</v>
+        <v>20.520043931844555</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -6848,11 +6851,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>20498.451948165792</v>
+        <v>20418.086133840399</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>20.498451948165791</v>
+        <v>20.418086133840401</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -6888,11 +6891,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>20273.836612701372</v>
+        <v>20232.052408101881</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>20.273836612701373</v>
+        <v>20.232052408101882</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -6928,11 +6931,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19985.979795455849</v>
+        <v>19481.300912740557</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>19.985979795455851</v>
+        <v>19.481300912740558</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -6968,11 +6971,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19872.265338897661</v>
+        <v>19580.376230123369</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.872265338897662</v>
+        <v>19.58037623012337</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -7008,11 +7011,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>19703.780174255277</v>
+        <v>19559.652648809282</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>19.703780174255275</v>
+        <v>19.559652648809283</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -7048,11 +7051,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>23650.983095169053</v>
+        <v>23508.434615972361</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>23.650983095169053</v>
+        <v>23.508434615972362</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -7088,11 +7091,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19710.749149322437</v>
+        <v>19620.905004384844</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>19.710749149322439</v>
+        <v>19.620905004384845</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -7128,11 +7131,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>19998.359203338608</v>
+        <v>19820.731006505815</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>19.998359203338609</v>
+        <v>19.820731006505817</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -7168,11 +7171,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>19681.432485580419</v>
+        <v>19563.212715032427</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>19.681432485580419</v>
+        <v>19.563212715032428</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -7208,11 +7211,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>49817.555189132523</v>
+        <v>49704.42303264403</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>49.817555189132527</v>
+        <v>49.70442303264403</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -7248,11 +7251,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>24812.996149063103</v>
+        <v>24673.976264837111</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>24.812996149063103</v>
+        <v>24.673976264837112</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -7288,11 +7291,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>24326.084613799976</v>
+        <v>24167.070947530585</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>24.326084613799978</v>
+        <v>24.167070947530586</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -7328,11 +7331,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>24411.338567733685</v>
+        <v>24238.705716970293</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>24.411338567733686</v>
+        <v>24.238705716970294</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -7368,11 +7371,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>22189.031362533515</v>
+        <v>22008.317552450022</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>22.189031362533516</v>
+        <v>22.008317552450023</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -7408,11 +7411,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>19699.943304061795</v>
+        <v>19387.847028615801</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>19.699943304061794</v>
+        <v>19.387847028615802</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -7448,11 +7451,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>19340.310573577797</v>
+        <v>19241.409383657305</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>19.340310573577799</v>
+        <v>19.241409383657306</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -7488,11 +7491,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>19151.411056518529</v>
+        <v>18983.917079809038</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>19.15141105651853</v>
+        <v>18.983917079809039</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -7528,11 +7531,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>22401.882886886531</v>
+        <v>21992.598853948439</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>22.401882886886533</v>
+        <v>21.99259885394844</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7568,11 +7571,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>20385.319471359195</v>
+        <v>20176.652751806101</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.385319471359196</v>
+        <v>20.176652751806103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -7608,11 +7611,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>20894.928693771319</v>
+        <v>20547.621808889227</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>20.89492869377132</v>
+        <v>20.547621808889229</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -7648,11 +7651,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>20020.54238319393</v>
+        <v>19887.289844396437</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>20.020542383193931</v>
+        <v>19.887289844396438</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -7688,11 +7691,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>19931.945323944092</v>
+        <v>19661.7306097773</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>19.931945323944092</v>
+        <v>19.661730609777301</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -7728,11 +7731,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>19577.001571655237</v>
+        <v>19468.115173223345</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>19.577001571655238</v>
+        <v>19.468115173223346</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7768,11 +7771,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>19753.750085830645</v>
+        <v>19697.186313512651</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>19.753750085830646</v>
+        <v>19.697186313512653</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -7808,11 +7811,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>19914.387226104653</v>
+        <v>19581.328950765459</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>19.914387226104655</v>
+        <v>19.58132895076546</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -7848,11 +7851,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>20659.90209579458</v>
+        <v>20251.486621740187</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>20.659902095794578</v>
+        <v>20.251486621740188</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7888,11 +7891,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19882.529735565171</v>
+        <v>19477.606616857378</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.882529735565171</v>
+        <v>19.477606616857379</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7928,11 +7931,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19999.873161315834</v>
+        <v>19549.76543033394</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.999873161315836</v>
+        <v>19.549765430333942</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7968,11 +7971,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>19803.698539733803</v>
+        <v>19574.558578374712</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>19.803698539733805</v>
+        <v>19.574558578374713</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -8008,11 +8011,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>20873.921155929529</v>
+        <v>20609.798990133135</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>20.87392115592953</v>
+        <v>20.609798990133136</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -8048,11 +8051,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>19953.703641891476</v>
+        <v>19896.607719304884</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>19.953703641891476</v>
+        <v>19.896607719304885</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -8088,11 +8091,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>20427.555322647018</v>
+        <v>20264.505468252024</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>20.42755532264702</v>
+        <v>20.264505468252025</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -8128,11 +8131,20 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>21118.252992629947</v>
+        <v>20923.297010305254</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>21.118252992629948</v>
+        <v>20.923297010305255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(E2:E45,'500_trees'!E2:E45,'10_trees'!E2:E45)</f>
+        <v>18648.306213262407</v>
       </c>
     </row>
   </sheetData>
@@ -8166,10 +8178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8247,12 +8259,12 @@
         <v>14597.7523326873</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>21477.996826171824</v>
+        <f>SUM($E$47,G2,H2)</f>
+        <v>22041.72023380073</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>21.477996826171825</v>
+        <v>22.041720233800731</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -8287,12 +8299,12 @@
         <v>7434.4809055328296</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K46" si="0">SUM(E3,G3,H3)</f>
-        <v>19087.468862533486</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
+        <v>19627.175651433794</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>19.087468862533488</v>
+        <v>19.627175651433795</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -8328,11 +8340,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>19087.456464767445</v>
+        <v>19645.682893636553</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>19.087456464767445</v>
+        <v>19.645682893636554</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -8368,11 +8380,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>18761.665344238259</v>
+        <v>19462.865911367266</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>18.76166534423826</v>
+        <v>19.462865911367267</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -8408,11 +8420,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>21331.359386443994</v>
+        <v>22019.761644246901</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>21.331359386443992</v>
+        <v>22.019761644246902</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -8448,11 +8460,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>19861.939430236813</v>
+        <v>20499.35062969002</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>19.861939430236813</v>
+        <v>20.499350629690021</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -8488,11 +8500,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>19932.61337280272</v>
+        <v>20800.876699331126</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>19.93261337280272</v>
+        <v>20.800876699331127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -8528,11 +8540,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>18840.18039703367</v>
+        <v>19898.806177022776</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>18.84018039703367</v>
+        <v>19.898806177022777</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -8568,11 +8580,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>22675.798892974828</v>
+        <v>23431.390367391436</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>22.675798892974829</v>
+        <v>23.431390367391437</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -8608,11 +8620,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>21995.888948440457</v>
+        <v>22420.914731862864</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>21.995888948440459</v>
+        <v>22.420914731862865</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -8648,11 +8660,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>21767.140150070158</v>
+        <v>22347.264133336867</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>21.767140150070158</v>
+        <v>22.347264133336868</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -8688,11 +8700,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>24980.643272399881</v>
+        <v>25660.80888355049</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>24.980643272399881</v>
+        <v>25.660808883550491</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -8728,11 +8740,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>19868.786811828573</v>
+        <v>20375.806651952582</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>19.868786811828574</v>
+        <v>20.375806651952583</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8768,11 +8780,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19372.3049163818</v>
+        <v>19633.912168386309</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>19.3723049163818</v>
+        <v>19.63391216838631</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -8808,11 +8820,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19507.116556167541</v>
+        <v>19700.764022710649</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.507116556167542</v>
+        <v>19.700764022710651</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -8848,11 +8860,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>19315.36626815789</v>
+        <v>19654.237590673296</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>19.315366268157891</v>
+        <v>19.654237590673297</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -8888,11 +8900,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>20468.434333801226</v>
+        <v>21203.754268529738</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>20.468434333801227</v>
+        <v>21.203754268529739</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -8928,11 +8940,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19038.146734237667</v>
+        <v>19633.873782995073</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>19.038146734237667</v>
+        <v>19.633873782995074</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -8968,11 +8980,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>19691.022396087614</v>
+        <v>19815.172754171221</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>19.691022396087615</v>
+        <v>19.815172754171222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -9008,11 +9020,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>19401.668310165318</v>
+        <v>19606.839738729326</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>19.40166831016532</v>
+        <v>19.606839738729327</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -9048,11 +9060,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>74995.902299880923</v>
+        <v>75265.017114522736</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>74.995902299880925</v>
+        <v>75.265017114522735</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -9088,11 +9100,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>31968.754291534267</v>
+        <v>29672.091089132075</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>31.968754291534268</v>
+        <v>29.672091089132074</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -9128,11 +9140,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>25553.627252578681</v>
+        <v>26002.329669835886</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>25.553627252578682</v>
+        <v>26.002329669835888</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -9168,11 +9180,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>25957.767724990823</v>
+        <v>26227.399431112131</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>25.957767724990823</v>
+        <v>26.227399431112133</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -9208,11 +9220,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>21682.696580886768</v>
+        <v>21940.045438649977</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>21.68269658088677</v>
+        <v>21.940045438649978</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -9248,11 +9260,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>19258.500576019196</v>
+        <v>19645.680032613604</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>19.258500576019198</v>
+        <v>19.645680032613605</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -9288,11 +9300,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>19427.932977676355</v>
+        <v>19644.295535924761</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>19.427932977676356</v>
+        <v>19.644295535924762</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -9328,11 +9340,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>19129.885673522887</v>
+        <v>19458.410583379595</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>19.129885673522889</v>
+        <v>19.458410583379596</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -9368,11 +9380,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>21551.76806449884</v>
+        <v>21870.569549444048</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>21.551768064498841</v>
+        <v>21.870569549444049</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -9408,11 +9420,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>20236.24372482298</v>
+        <v>20330.297313573687</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.23624372482298</v>
+        <v>20.330297313573688</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9448,11 +9460,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>20394.616365432681</v>
+        <v>20709.923349263987</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>20.394616365432682</v>
+        <v>20.709923349263988</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9493,11 +9505,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>21653.520822524926</v>
+        <v>21829.095445516432</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>21.653520822524925</v>
+        <v>21.829095445516433</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9533,11 +9545,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>21555.830717086748</v>
+        <v>21749.037586095656</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>21.555830717086749</v>
+        <v>21.749037586095657</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -9573,11 +9585,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>21326.825618743816</v>
+        <v>21615.834079625925</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>21.326825618743818</v>
+        <v>21.615834079625927</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -9613,11 +9625,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>24614.975929260221</v>
+        <v>24766.962848546827</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>24.614975929260222</v>
+        <v>24.766962848546829</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -9653,11 +9665,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>20155.572652816765</v>
+        <v>20356.153570058672</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>20.155572652816765</v>
+        <v>20.356153570058673</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9693,11 +9705,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19362.543106079083</v>
+        <v>19608.796678426592</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.362543106079084</v>
+        <v>19.608796678426593</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9733,11 +9745,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19275.591135024937</v>
+        <v>19546.272121312944</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.275591135024939</v>
+        <v>19.546272121312946</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9773,11 +9785,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>19426.39231681819</v>
+        <v>19707.338176610796</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>19.426392316818191</v>
+        <v>19.707338176610797</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9813,11 +9825,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>20331.374406814495</v>
+        <v>20672.715745809401</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>20.331374406814497</v>
+        <v>20.672715745809402</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -9853,11 +9865,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>19721.846580505327</v>
+        <v>19917.666040304033</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>19.721846580505328</v>
+        <v>19.917666040304034</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9893,11 +9905,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>20190.834283828724</v>
+        <v>20291.401944997633</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>20.190834283828725</v>
+        <v>20.291401944997634</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9933,17 +9945,20 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>20846.753120422356</v>
+        <v>20942.007861974562</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>20.846753120422356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.942007861974563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <f>'10_trees'!E47</f>
+        <v>18648.306213262407</v>
       </c>
     </row>
   </sheetData>
@@ -9977,10 +9992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10058,12 +10073,12 @@
         <v>20052.2785186767</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>20670.673131942676</v>
+        <f>SUM($E$47,G2,H2)</f>
+        <v>21995.792709234083</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>20.670673131942678</v>
+        <v>21.995792709234085</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10098,12 +10113,12 @@
         <v>13646.9283103942</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM(E3,G3,H3)</f>
-        <v>19207.712411880464</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
+        <v>20562.939487340773</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>19.207712411880465</v>
+        <v>20.562939487340774</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10139,11 +10154,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>19226.046562194817</v>
+        <v>20603.905521276323</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>19.226046562194817</v>
+        <v>20.603905521276324</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10184,11 +10199,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>20517.30799674982</v>
+        <v>21909.153066518622</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>20.517307996749821</v>
+        <v>21.909153066518623</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10224,11 +10239,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>19534.373760223374</v>
+        <v>20861.352287175981</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>19.534373760223374</v>
+        <v>20.861352287175983</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10264,11 +10279,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>19831.110477447481</v>
+        <v>21209.349475744089</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>19.831110477447481</v>
+        <v>21.209349475744091</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10309,11 +10324,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>25812.568902969313</v>
+        <v>27169.304452779619</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>25.812568902969314</v>
+        <v>27.16930445277962</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10349,11 +10364,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>25691.58649444575</v>
+        <v>27130.177579763258</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>25.691586494445751</v>
+        <v>27.130177579763259</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10389,11 +10404,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>25505.322217941226</v>
+        <v>26937.992416265333</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>25.505322217941227</v>
+        <v>26.937992416265335</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10429,11 +10444,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>31741.033077239881</v>
+        <v>33006.013713720087</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>31.74103307723988</v>
+        <v>33.006013713720087</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10469,11 +10484,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>19233.794689178394</v>
+        <v>20653.257451894606</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>19.233794689178396</v>
+        <v>20.653257451894607</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10509,11 +10524,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>18372.576475143411</v>
+        <v>19833.185516240919</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>18.372576475143411</v>
+        <v>19.833185516240921</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10549,11 +10564,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>18622.116804122903</v>
+        <v>19917.171083333815</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>18.622116804122903</v>
+        <v>19.917171083333816</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10589,11 +10604,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>18609.20166969292</v>
+        <v>19940.603814962229</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>18.609201669692922</v>
+        <v>19.94060381496223</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10629,11 +10644,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>19595.750331878589</v>
+        <v>20866.192661168898</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>19.595750331878591</v>
+        <v>20.866192661168899</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10669,11 +10684,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>18338.09757232658</v>
+        <v>19765.435777547682</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>18.338097572326582</v>
+        <v>19.765435777547683</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10709,11 +10724,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>18591.121435165311</v>
+        <v>19943.129859807817</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>18.591121435165309</v>
+        <v>19.943129859807819</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10749,11 +10764,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>18381.333827972343</v>
+        <v>19635.142646673052</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>18.381333827972345</v>
+        <v>19.635142646673053</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10789,11 +10804,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>182469.3226814261</v>
+        <v>183829.62688052841</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>182.46932268142609</v>
+        <v>183.82962688052842</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10829,11 +10844,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>36919.511079788106</v>
+        <v>38436.340652349318</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>36.919511079788109</v>
+        <v>38.436340652349315</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10869,11 +10884,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>24830.549001693689</v>
+        <v>26329.809985997996</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>24.83054900169369</v>
+        <v>26.329809985997997</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10909,11 +10924,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>26265.806674957243</v>
+        <v>27782.624088170851</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>26.265806674957243</v>
+        <v>27.782624088170852</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10949,11 +10964,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>20814.323425292951</v>
+        <v>21999.414049032057</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>20.814323425292951</v>
+        <v>21.999414049032058</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10989,11 +11004,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>20337.169647216739</v>
+        <v>20574.088178518145</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>20.33716964721674</v>
+        <v>20.574088178518146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11029,11 +11044,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>19543.521165847687</v>
+        <v>20615.752302053294</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>19.54352116584769</v>
+        <v>20.615752302053295</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11074,11 +11089,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>22341.815948486244</v>
+        <v>21732.390485647051</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>22.341815948486246</v>
+        <v>21.732390485647052</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11114,11 +11129,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>21433.18605422966</v>
+        <v>20917.692981603468</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>21.433186054229662</v>
+        <v>20.917692981603469</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11154,11 +11169,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>21779.373168945251</v>
+        <v>21256.754241826857</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>21.779373168945252</v>
+        <v>21.256754241826858</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11199,11 +11214,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>25244.436502456596</v>
+        <v>24572.527967336504</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>25.244436502456598</v>
+        <v>24.572527967336505</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11239,11 +11254,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>24317.288637161164</v>
+        <v>23815.52918994697</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>24.317288637161166</v>
+        <v>23.815529189946972</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11279,11 +11294,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>28739.700317382809</v>
+        <v>28235.260091665117</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>28.739700317382809</v>
+        <v>28.235260091665118</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11319,11 +11334,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>31906.359910964864</v>
+        <v>31355.889402272973</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>31.906359910964866</v>
+        <v>31.355889402272972</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11359,11 +11374,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>21317.437648773186</v>
+        <v>20675.800643804392</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>21.317437648773186</v>
+        <v>20.675800643804394</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11399,11 +11414,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>20286.844491958538</v>
+        <v>19829.599462392645</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>20.28684449195854</v>
+        <v>19.829599462392647</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11439,11 +11454,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>20588.81640434264</v>
+        <v>19968.547426107249</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>20.588816404342641</v>
+        <v>19.96854742610725</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11479,11 +11494,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>20759.18936729429</v>
+        <v>19938.978515508497</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>20.75918936729429</v>
+        <v>19.938978515508499</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11519,11 +11534,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>21457.453727722066</v>
+        <v>20907.724223974074</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>21.457453727722065</v>
+        <v>20.907724223974075</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11559,11 +11574,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>20715.339660644513</v>
+        <v>20074.338279607622</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>20.715339660644513</v>
+        <v>20.074338279607623</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -11599,11 +11614,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>21073.01712036131</v>
+        <v>20497.524104955519</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>21.07301712036131</v>
+        <v>20.49752410495552</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11639,11 +11654,20 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>21661.250352859417</v>
+        <v>21046.711526754225</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>21.661250352859419</v>
+        <v>21.046711526754226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <f>'10_trees'!E47</f>
+        <v>18648.306213262407</v>
       </c>
     </row>
   </sheetData>
@@ -11679,8 +11703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11795,24 +11819,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>19.066560745239208</v>
+        <v>18.976842962148517</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>19.928592681884759</v>
+        <v>20.004144988897171</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>19.703780174255275</v>
+        <v>19.481300912740558</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>19.681432485580419</v>
+        <v>19.563212715032428</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>24.326084613799978</v>
+        <v>24.167070947530586</v>
       </c>
       <c r="H9">
         <v>22.6</v>
@@ -11848,24 +11872,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>18.76166534423826</v>
+        <v>19.462865911367267</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>18.84018039703367</v>
+        <v>19.898806177022777</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>19.315366268157891</v>
+        <v>19.63391216838631</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>19.038146734237667</v>
+        <v>19.606839738729327</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>25.553627252578682</v>
+        <v>26.002329669835888</v>
       </c>
       <c r="H10">
         <v>23.4</v>
@@ -11901,24 +11925,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>19.207712411880465</v>
+        <v>20.562939487340774</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>19.534373760223374</v>
+        <v>20.861352287175983</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>18.372576475143411</v>
+        <v>19.833185516240921</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>18.338097572326582</v>
+        <v>19.635142646673053</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>24.83054900169369</v>
+        <v>26.329809985997997</v>
       </c>
       <c r="H11">
         <v>28.2</v>
@@ -11991,19 +12015,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>19.15141105651853</v>
+        <v>18.983917079809039</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L30:'10_trees'!L33)</f>
-        <v>20.020542383193931</v>
+        <v>19.887289844396438</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>19.803698539733805</v>
+        <v>19.477606616857379</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
-        <v>19.953703641891476</v>
+        <v>19.896607719304885</v>
       </c>
       <c r="H15">
         <v>22.6</v>
@@ -12034,19 +12058,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>19.129885673522889</v>
+        <v>19.458410583379596</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L30:'500_trees'!L33)</f>
-        <v>20.23624372482298</v>
+        <v>20.330297313573688</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>19.275591135024939</v>
+        <v>19.546272121312946</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
-        <v>19.721846580505328</v>
+        <v>19.917666040304034</v>
       </c>
       <c r="H16">
         <v>24.4</v>
@@ -12077,19 +12101,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>19.54352116584769</v>
+        <v>20.574088178518146</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L30:'1600_trees'!L33)</f>
-        <v>21.433186054229662</v>
+        <v>20.917692981603469</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>20.28684449195854</v>
+        <v>19.829599462392647</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
-        <v>20.715339660644513</v>
+        <v>20.074338279607623</v>
       </c>
       <c r="H17">
         <v>27.1</v>

--- a/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/bosch/bosch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\bosch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B18679-AA66-46B4-AB4E-3CCB86C838C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A7EF2-B6C3-4023-AF72-B07EB815B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9108" yWindow="1272" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -1605,13 +1605,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.976842962148517</c:v>
+                  <c:v>18.968970189180794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.462865911367267</c:v>
+                  <c:v>19.442173371401253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.562939487340774</c:v>
+                  <c:v>20.553604493227422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,13 +1729,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.004144988897171</c:v>
+                  <c:v>19.991266141024052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.898806177022777</c:v>
+                  <c:v>19.883514771547731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.861352287175983</c:v>
+                  <c:v>20.852375397768441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,13 +1853,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.481300912740558</c:v>
+                  <c:v>19.472857842531624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.63391216838631</c:v>
+                  <c:v>19.620168099489632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.833185516240921</c:v>
+                  <c:v>19.822673926439702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,13 +1977,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.563212715032428</c:v>
+                  <c:v>19.614377627458992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.606839738729327</c:v>
+                  <c:v>19.661122927751961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.635142646673053</c:v>
+                  <c:v>19.690240511980477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,13 +2101,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.167070947530586</c:v>
+                  <c:v>24.159008393373899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.002329669835888</c:v>
+                  <c:v>25.99682796963733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.329809985997997</c:v>
+                  <c:v>26.316434750643189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,13 +2765,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.983917079809039</c:v>
+                  <c:v>18.973663697328988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.458410583379596</c:v>
+                  <c:v>19.439622769442025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.574088178518146</c:v>
+                  <c:v>20.552108893480721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,13 +2889,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.887289844396438</c:v>
+                  <c:v>19.877725014772832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.330297313573688</c:v>
+                  <c:v>20.321838984575692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.917692981603469</c:v>
+                  <c:v>20.90674627789539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,13 +3013,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.477606616857379</c:v>
+                  <c:v>19.467654833879891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.546272121312946</c:v>
+                  <c:v>19.531669268694344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.829599462392647</c:v>
+                  <c:v>19.819971213426999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,13 +3137,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.896607719304885</c:v>
+                  <c:v>19.94322145947498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.917666040304034</c:v>
+                  <c:v>19.970552573290291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.074338279607623</c:v>
+                  <c:v>20.127466092195931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,7 +6332,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K45"/>
+      <selection activeCell="H2" sqref="H2:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6410,12 +6410,12 @@
         <v>166376.04093551601</v>
       </c>
       <c r="K2">
-        <f>SUM($E$47,G2,H2)</f>
-        <v>23960.940204503859</v>
+        <f>SUM($E$47,G2,$H$47)</f>
+        <v>23950.308928575931</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>23.96094020450386</v>
+        <v>23.950308928575932</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -6450,12 +6450,12 @@
         <v>5140.46144485473</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
-        <v>19384.569488408892</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,$H$47)</f>
+        <v>19366.092333879889</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>19.384569488408893</v>
+        <v>19.366092333879891</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -6491,11 +6491,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>19244.267784002153</v>
+        <v>19235.629687395514</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>19.244267784002155</v>
+        <v>19.235629687395516</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6531,11 +6531,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>18976.842962148516</v>
+        <v>18968.970189180793</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>18.976842962148517</v>
+        <v>18.968970189180794</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>30783.090911748644</v>
+        <v>30773.859629717201</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>30.783090911748644</v>
+        <v>30.773859629717201</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>20245.852075460276</v>
+        <v>20237.481484499389</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>20.245852075460277</v>
+        <v>20.237481484499391</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6651,11 +6651,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>20640.229307058184</v>
+        <v>20626.51861676258</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20.640229307058185</v>
+        <v>20.626518616762581</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6691,11 +6691,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>20004.144988897169</v>
+        <v>19991.266141024051</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>20.004144988897171</v>
+        <v>19.991266141024052</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -6731,11 +6731,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>101919.60128391057</v>
+        <v>101897.00425633469</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>101.91960128391057</v>
+        <v>101.8970042563347</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -6771,11 +6771,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>20299.813590886915</v>
+        <v>20280.106673326907</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>20.299813590886917</v>
+        <v>20.280106673326909</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -6811,11 +6811,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>20520.043931844553</v>
+        <v>20492.072711077148</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>20.520043931844555</v>
+        <v>20.492072711077149</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -6851,11 +6851,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>20418.086133840399</v>
+        <v>20408.891568270137</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>20.418086133840401</v>
+        <v>20.408891568270139</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -6891,11 +6891,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>20232.052408101881</v>
+        <v>20221.957812395511</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>20.232052408101882</v>
+        <v>20.221957812395512</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -6931,11 +6931,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19481.300912740557</v>
+        <v>19472.857842531623</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>19.481300912740558</v>
+        <v>19.472857842531624</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -6971,11 +6971,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19580.376230123369</v>
+        <v>19570.962557878913</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.58037623012337</v>
+        <v>19.570962557878914</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -7011,11 +7011,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>19559.652648809282</v>
+        <v>19550.847897615851</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>19.559652648809283</v>
+        <v>19.550847897615853</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,11 +7051,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>23508.434615972361</v>
+        <v>23559.561619844848</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>23.508434615972362</v>
+        <v>23.55956161984485</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -7091,11 +7091,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19620.905004384844</v>
+        <v>19672.105202761115</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>19.620905004384845</v>
+        <v>19.672105202761117</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -7131,11 +7131,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>19820.731006505815</v>
+        <v>19871.64367207569</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>19.820731006505817</v>
+        <v>19.871643672075692</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -7171,11 +7171,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>19563.212715032427</v>
+        <v>19614.377627458991</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>19.563212715032428</v>
+        <v>19.614377627458992</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -7211,11 +7211,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>49704.42303264403</v>
+        <v>49694.960007753703</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>49.70442303264403</v>
+        <v>49.694960007753707</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -7251,11 +7251,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>24673.976264837111</v>
+        <v>24664.184937563357</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>24.673976264837112</v>
+        <v>24.664184937563359</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -7291,11 +7291,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>24167.070947530585</v>
+        <v>24159.008393373897</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>24.167070947530586</v>
+        <v>24.159008393373899</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -7331,11 +7331,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>24238.705716970293</v>
+        <v>24232.223639574469</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>24.238705716970294</v>
+        <v>24.232223639574471</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -7371,11 +7371,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>22008.317552450022</v>
+        <v>21996.966013994628</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>22.008317552450023</v>
+        <v>21.99696601399463</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -7411,11 +7411,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>19387.847028615801</v>
+        <v>19375.627884951056</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>19.387847028615802</v>
+        <v>19.375627884951058</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -7451,11 +7451,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>19241.409383657305</v>
+        <v>19234.422335710944</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>19.241409383657306</v>
+        <v>19.234422335710946</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -7491,11 +7491,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>18983.917079809038</v>
+        <v>18973.663697328986</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>18.983917079809039</v>
+        <v>18.973663697328988</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>21992.598853948439</v>
+        <v>21981.094966020999</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>21.99259885394844</v>
+        <v>21.981094966021001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7571,11 +7571,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>20176.652751806101</v>
+        <v>20167.29606160205</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.176652751806103</v>
+        <v>20.167296061602052</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -7611,11 +7611,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>20547.621808889227</v>
+        <v>20538.729319658687</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>20.547621808889229</v>
+        <v>20.538729319658689</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>19887.289844396437</v>
+        <v>19877.72501477283</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>19.887289844396438</v>
+        <v>19.877725014772832</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -7691,11 +7691,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>19661.7306097773</v>
+        <v>19650.613198366584</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>19.661730609777301</v>
+        <v>19.650613198366585</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -7731,11 +7731,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>19468.115173223345</v>
+        <v>19459.343562212409</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>19.468115173223346</v>
+        <v>19.45934356221241</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>19697.186313512651</v>
+        <v>19677.335629549445</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>19.697186313512653</v>
+        <v>19.677335629549447</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -7811,11 +7811,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>19581.328950765459</v>
+        <v>19573.685774889411</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>19.58132895076546</v>
+        <v>19.573685774889412</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -7851,11 +7851,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>20251.486621740187</v>
+        <v>20226.637015428958</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>20.251486621740188</v>
+        <v>20.22663701542896</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7891,11 +7891,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19477.606616857378</v>
+        <v>19467.654833879889</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.477606616857379</v>
+        <v>19.467654833879891</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7931,11 +7931,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19549.76543033394</v>
+        <v>19538.799176302375</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.549765430333942</v>
+        <v>19.538799176302376</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>19574.558578374712</v>
+        <v>19565.778861132087</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>19.574558578374713</v>
+        <v>19.565778861132088</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -8011,11 +8011,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>20609.798990133135</v>
+        <v>20656.55053624195</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>20.609798990133136</v>
+        <v>20.656550536241951</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -8051,11 +8051,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>19896.607719304884</v>
+        <v>19943.221459474978</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>19.896607719304885</v>
+        <v>19.94322145947498</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -8091,11 +8091,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>20264.505468252024</v>
+        <v>20311.071524706298</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>20.264505468252025</v>
+        <v>20.3110715247063</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -8131,11 +8131,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>20923.297010305254</v>
+        <v>20969.65015896839</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>20.923297010305255</v>
+        <v>20.969650158968392</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -8146,9 +8146,28 @@
         <f>AVERAGE(E2:E45,'500_trees'!E2:E45,'10_trees'!E2:E45)</f>
         <v>18648.306213262407</v>
       </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <f>AVERAGE(H2:H45,'500_trees'!H2:H45,'1600_trees'!H2:H45)</f>
+        <v>108.60495492229285</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8160,7 +8179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G45">
+  <conditionalFormatting sqref="H2:H45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8180,8 +8199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8259,12 +8278,12 @@
         <v>14597.7523326873</v>
       </c>
       <c r="K2">
-        <f>SUM($E$47,G2,H2)</f>
-        <v>22041.72023380073</v>
+        <f>SUM($E$47,G2,$H$47)</f>
+        <v>22031.761536684447</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>22.041720233800731</v>
+        <v>22.031761536684449</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -8299,12 +8318,12 @@
         <v>7434.4809055328296</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
-        <v>19627.175651433794</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,$H$47)</f>
+        <v>19616.556058016242</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>19.627175651433795</v>
+        <v>19.616556058016243</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -8340,11 +8359,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>19645.682893636553</v>
+        <v>19637.326130953254</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>19.645682893636554</v>
+        <v>19.637326130953255</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -8380,11 +8399,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>19462.865911367266</v>
+        <v>19442.173371401252</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>19.462865911367267</v>
+        <v>19.442173371401253</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -8420,11 +8439,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>22019.761644246901</v>
+        <v>22001.809725847659</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>22.019761644246902</v>
+        <v>22.001809725847661</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -8460,11 +8479,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>20499.35062969002</v>
+        <v>20489.64322575611</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>20.499350629690021</v>
+        <v>20.489643225756112</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -8500,11 +8519,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>20800.876699331126</v>
+        <v>20793.99717816394</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20.800876699331127</v>
+        <v>20.793997178163941</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -8540,11 +8559,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>19898.806177022776</v>
+        <v>19883.514771547729</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>19.898806177022777</v>
+        <v>19.883514771547731</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -8580,11 +8599,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>23431.390367391436</v>
+        <v>23425.134787645758</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>23.431390367391437</v>
+        <v>23.42513478764576</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -8620,11 +8639,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>22420.914731862864</v>
+        <v>22389.544138994628</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>22.420914731862865</v>
+        <v>22.38954413899463</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -8660,11 +8679,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>22347.264133336867</v>
+        <v>22339.92827900928</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>22.347264133336868</v>
+        <v>22.339928279009282</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -8700,11 +8719,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>25660.80888355049</v>
+        <v>25635.572323885379</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>25.660808883550491</v>
+        <v>25.635572323885381</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -8740,11 +8759,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>20375.806651952582</v>
+        <v>20364.885220613887</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>20.375806651952583</v>
+        <v>20.364885220613889</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8780,11 +8799,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19633.912168386309</v>
+        <v>19620.168099489631</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>19.63391216838631</v>
+        <v>19.620168099489632</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -8820,11 +8839,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19700.764022710649</v>
+        <v>19691.097626772345</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.700764022710651</v>
+        <v>19.691097626772347</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -8860,11 +8879,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>19654.237590673296</v>
+        <v>19645.156273928107</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>19.654237590673297</v>
+        <v>19.645156273928109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -8900,11 +8919,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>21203.754268529738</v>
+        <v>21258.050808992801</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>21.203754268529739</v>
+        <v>21.258050808992802</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -8940,11 +8959,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19633.873782995073</v>
+        <v>19688.157448854865</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>19.633873782995074</v>
+        <v>19.688157448854867</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -8980,11 +8999,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>19815.172754171221</v>
+        <v>19869.21823987049</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>19.815172754171222</v>
+        <v>19.869218239870492</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -9020,11 +9039,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>19606.839738729326</v>
+        <v>19661.12292775196</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>19.606839738729327</v>
+        <v>19.661122927751961</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -9060,11 +9079,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>75265.017114522736</v>
+        <v>75255.488047685998</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>75.265017114522735</v>
+        <v>75.255488047686001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -9100,11 +9119,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>29672.091089132075</v>
+        <v>29665.145287599898</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>29.672091089132074</v>
+        <v>29.665145287599898</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -9140,11 +9159,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>26002.329669835886</v>
+        <v>25996.827969637328</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>26.002329669835888</v>
+        <v>25.99682796963733</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -9180,11 +9199,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>26227.399431112131</v>
+        <v>26220.26670941394</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>26.227399431112133</v>
+        <v>26.220266709413941</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -9220,11 +9239,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>21940.045438649977</v>
+        <v>21928.681740847049</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>21.940045438649978</v>
+        <v>21.92868174084705</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -9260,11 +9279,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>19645.680032613604</v>
+        <v>19629.950175371589</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>19.645680032613605</v>
+        <v>19.62995017537159</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -9300,11 +9319,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>19644.295535924761</v>
+        <v>19636.391053286017</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>19.644295535924762</v>
+        <v>19.636391053286019</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -9340,11 +9359,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>19458.410583379595</v>
+        <v>19439.622769442023</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>19.458410583379596</v>
+        <v>19.439622769442025</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -9380,11 +9399,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>21870.569549444048</v>
+        <v>21857.65064724964</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>21.870569549444049</v>
+        <v>21.857650647249642</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -9420,11 +9439,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>20330.297313573687</v>
+        <v>20321.83898457569</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.330297313573688</v>
+        <v>20.321838984575692</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9460,11 +9479,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>20709.923349263987</v>
+        <v>20692.605147447997</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>20.709923349263988</v>
+        <v>20.692605147447999</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9505,11 +9524,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>21829.095445516432</v>
+        <v>21801.415810671268</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>21.829095445516433</v>
+        <v>21.801415810671269</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9545,11 +9564,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>21749.037586095656</v>
+        <v>21729.54762944263</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>21.749037586095657</v>
+        <v>21.729547629442632</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -9585,11 +9604,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>21615.834079625925</v>
+        <v>21608.912596788818</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>21.615834079625927</v>
+        <v>21.608912596788819</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -9625,11 +9644,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>24766.962848546827</v>
+        <v>24759.141812410769</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>24.766962848546829</v>
+        <v>24.759141812410771</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -9665,11 +9684,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>20356.153570058672</v>
+        <v>20337.28087910694</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>20.356153570058673</v>
+        <v>20.337280879106942</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9705,11 +9724,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19608.796678426592</v>
+        <v>19600.981364336432</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.608796678426593</v>
+        <v>19.600981364336434</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9745,11 +9764,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19546.272121312944</v>
+        <v>19531.669268694342</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.546272121312946</v>
+        <v>19.531669268694344</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9785,11 +9804,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>19707.338176610796</v>
+        <v>19684.377560701789</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>19.707338176610797</v>
+        <v>19.68437756070179</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9825,11 +9844,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>20672.715745809401</v>
+        <v>20725.270161714969</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>20.672715745809402</v>
+        <v>20.72527016171497</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -9865,11 +9884,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>19917.666040304033</v>
+        <v>19970.55257329029</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>19.917666040304034</v>
+        <v>19.970552573290291</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9905,11 +9924,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>20291.401944997633</v>
+        <v>20343.7920905022</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>20.291401944997634</v>
+        <v>20.343792090502202</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9945,11 +9964,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>20942.007861974562</v>
+        <v>20994.20941838306</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>20.942007861974563</v>
+        <v>20.994209418383061</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -9959,6 +9978,13 @@
       <c r="E47">
         <f>'10_trees'!E47</f>
         <v>18648.306213262407</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <f>'10_trees'!H47</f>
+        <v>108.60495492229285</v>
       </c>
     </row>
   </sheetData>
@@ -9994,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10073,12 +10099,12 @@
         <v>20052.2785186767</v>
       </c>
       <c r="K2">
-        <f>SUM($E$47,G2,H2)</f>
-        <v>21995.792709234083</v>
+        <f>SUM($E$47,G2,$H$47)</f>
+        <v>21984.765420046268</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>21.995792709234085</v>
+        <v>21.984765420046269</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10113,12 +10139,12 @@
         <v>13646.9283103942</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,H3)</f>
-        <v>20562.939487340773</v>
+        <f t="shared" ref="K3:K45" si="0">SUM($E$47,G3,$H$47)</f>
+        <v>20553.60449322742</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L45" si="1">PRODUCT(K3,0.001)</f>
-        <v>20.562939487340774</v>
+        <v>20.553604493227422</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10154,11 +10180,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>20603.905521276323</v>
+        <v>20580.32811650318</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>20.603905521276324</v>
+        <v>20.580328116503182</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10199,11 +10225,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>21909.153066518622</v>
+        <v>21896.339545336177</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>21.909153066518623</v>
+        <v>21.896339545336179</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10239,11 +10265,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>20861.352287175981</v>
+        <v>20852.375397768439</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>20.861352287175983</v>
+        <v>20.852375397768441</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10279,11 +10305,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>21209.349475744089</v>
+        <v>21200.924286928588</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>21.209349475744091</v>
+        <v>21.20092428692859</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10324,11 +10350,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>27169.304452779619</v>
+        <v>27159.713873949469</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>27.16930445277962</v>
+        <v>27.159713873949471</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10364,11 +10390,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>27130.177579763258</v>
+        <v>27109.173188295779</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>27.130177579763259</v>
+        <v>27.109173188295781</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10404,11 +10430,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>26937.992416265333</v>
+        <v>26931.90825947803</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>26.937992416265335</v>
+        <v>26.931908259478032</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10444,11 +10470,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>33006.013713720087</v>
+        <v>33000.0218249229</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>33.006013713720087</v>
+        <v>33.000021824922904</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10484,11 +10510,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>20653.257451894606</v>
+        <v>20643.347153749881</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>20.653257451894607</v>
+        <v>20.643347153749882</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10524,11 +10550,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19833.185516240919</v>
+        <v>19822.6739264397</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>19.833185516240921</v>
+        <v>19.822673926439702</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10564,11 +10590,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>19917.171083333815</v>
+        <v>19906.814704027591</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>19.917171083333816</v>
+        <v>19.906814704027592</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10604,11 +10630,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>19940.603814962229</v>
+        <v>19932.292828646117</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>19.94060381496223</v>
+        <v>19.932292828646119</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10644,11 +10670,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>20866.192661168898</v>
+        <v>20921.030650225101</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>20.866192661168899</v>
+        <v>20.921030650225102</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10684,11 +10710,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19765.435777547682</v>
+        <v>19820.490727510867</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>19.765435777547683</v>
+        <v>19.820490727510869</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10724,11 +10750,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>19943.129859807817</v>
+        <v>19998.24656018299</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>19.943129859807819</v>
+        <v>19.998246560182992</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10764,11 +10790,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>19635.142646673052</v>
+        <v>19690.240511980475</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>19.635142646673053</v>
+        <v>19.690240511980477</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10804,11 +10830,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>183829.62688052841</v>
+        <v>183820.06777295069</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>183.82962688052842</v>
+        <v>183.82006777295069</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10844,11 +10870,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>38436.340652349318</v>
+        <v>38431.508193102301</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>38.436340652349315</v>
+        <v>38.431508193102303</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10884,11 +10910,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>26329.809985997996</v>
+        <v>26316.434750643188</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>26.329809985997997</v>
+        <v>26.316434750643189</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10924,11 +10950,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>27782.624088170851</v>
+        <v>27776.09361180347</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>27.782624088170852</v>
+        <v>27.776093611803471</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10964,11 +10990,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>21999.414049032057</v>
+        <v>21989.061484423099</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>21.999414049032058</v>
+        <v>21.9890614844231</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11004,11 +11030,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>20574.088178518145</v>
+        <v>20552.108893480719</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>20.574088178518146</v>
+        <v>20.552108893480721</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11044,11 +11070,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>20615.752302053294</v>
+        <v>20596.392045107299</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>20.615752302053295</v>
+        <v>20.596392045107301</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11089,11 +11115,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>21732.390485647051</v>
+        <v>21718.00483235401</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>21.732390485647052</v>
+        <v>21.718004832354012</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11129,11 +11155,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>20917.692981603468</v>
+        <v>20906.746277895389</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>20.917692981603469</v>
+        <v>20.90674627789539</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11169,11 +11195,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>21256.754241826857</v>
+        <v>21245.279440966067</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>21.256754241826858</v>
+        <v>21.245279440966069</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11214,11 +11240,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>24572.527967336504</v>
+        <v>24563.41613301319</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>24.572527967336505</v>
+        <v>24.563416133013192</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11254,11 +11280,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>23815.52918994697</v>
+        <v>23807.738432970458</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>23.815529189946972</v>
+        <v>23.80773843297046</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11294,11 +11320,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>28235.260091665117</v>
+        <v>28226.882109728278</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>28.235260091665118</v>
+        <v>28.22688210972828</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11334,11 +11360,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>31355.889402272973</v>
+        <v>31344.071040239698</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>31.355889402272972</v>
+        <v>31.344071040239697</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11374,11 +11400,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>20675.800643804392</v>
+        <v>20665.303835955077</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>20.675800643804394</v>
+        <v>20.665303835955079</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11414,11 +11440,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>19829.599462392645</v>
+        <v>19819.971213426998</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>19.829599462392647</v>
+        <v>19.819971213426999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11454,11 +11480,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>19968.547426107249</v>
+        <v>19957.43072995227</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.96854742610725</v>
+        <v>19.957430729952272</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11494,11 +11520,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>19938.978515508497</v>
+        <v>19918.70893010181</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>19.938978515508499</v>
+        <v>19.918708930101811</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11534,11 +11560,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>20907.724223974074</v>
+        <v>20961.19464406055</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>20.907724223974075</v>
+        <v>20.961194644060551</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11574,11 +11600,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>20074.338279607622</v>
+        <v>20127.466092195929</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>20.074338279607623</v>
+        <v>20.127466092195931</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -11614,11 +11640,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>20497.524104955519</v>
+        <v>20550.237307634769</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>20.49752410495552</v>
+        <v>20.55023730763477</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11654,11 +11680,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>21046.711526754225</v>
+        <v>21099.702725496707</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>21.046711526754226</v>
+        <v>21.099702725496709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11668,6 +11694,13 @@
       <c r="E47">
         <f>'10_trees'!E47</f>
         <v>18648.306213262407</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <f>'10_trees'!H47</f>
+        <v>108.60495492229285</v>
       </c>
     </row>
   </sheetData>
@@ -11703,8 +11736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11819,24 +11852,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>18.976842962148517</v>
+        <v>18.968970189180794</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>20.004144988897171</v>
+        <v>19.991266141024052</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>19.481300912740558</v>
+        <v>19.472857842531624</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>19.563212715032428</v>
+        <v>19.614377627458992</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>24.167070947530586</v>
+        <v>24.159008393373899</v>
       </c>
       <c r="H9">
         <v>22.6</v>
@@ -11872,24 +11905,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>19.462865911367267</v>
+        <v>19.442173371401253</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>19.898806177022777</v>
+        <v>19.883514771547731</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>19.63391216838631</v>
+        <v>19.620168099489632</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>19.606839738729327</v>
+        <v>19.661122927751961</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>26.002329669835888</v>
+        <v>25.99682796963733</v>
       </c>
       <c r="H10">
         <v>23.4</v>
@@ -11925,24 +11958,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>20.562939487340774</v>
+        <v>20.553604493227422</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>20.861352287175983</v>
+        <v>20.852375397768441</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>19.833185516240921</v>
+        <v>19.822673926439702</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>19.635142646673053</v>
+        <v>19.690240511980477</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>26.329809985997997</v>
+        <v>26.316434750643189</v>
       </c>
       <c r="H11">
         <v>28.2</v>
@@ -12015,19 +12048,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>18.983917079809039</v>
+        <v>18.973663697328988</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L30:'10_trees'!L33)</f>
-        <v>19.887289844396438</v>
+        <v>19.877725014772832</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>19.477606616857379</v>
+        <v>19.467654833879891</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
-        <v>19.896607719304885</v>
+        <v>19.94322145947498</v>
       </c>
       <c r="H15">
         <v>22.6</v>
@@ -12058,19 +12091,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>19.458410583379596</v>
+        <v>19.439622769442025</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L30:'500_trees'!L33)</f>
-        <v>20.330297313573688</v>
+        <v>20.321838984575692</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>19.546272121312946</v>
+        <v>19.531669268694344</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
-        <v>19.917666040304034</v>
+        <v>19.970552573290291</v>
       </c>
       <c r="H16">
         <v>24.4</v>
@@ -12101,19 +12134,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>20.574088178518146</v>
+        <v>20.552108893480721</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L30:'1600_trees'!L33)</f>
-        <v>20.917692981603469</v>
+        <v>20.90674627789539</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>19.829599462392647</v>
+        <v>19.819971213426999</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
-        <v>20.074338279607623</v>
+        <v>20.127466092195931</v>
       </c>
       <c r="H17">
         <v>27.1</v>
